--- a/jyx2/Assets/Mods/Hunter6SecMod/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/Hunter6SecMod/Configs/战斗.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
+    <sheet name="回合制战斗力推算" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -314,6 +318,48 @@
   <si>
     <t>22</t>
   </si>
+  <si>
+    <t>回合</t>
+  </si>
+  <si>
+    <t>敌人攻击力</t>
+  </si>
+  <si>
+    <t>可能次数</t>
+  </si>
+  <si>
+    <t>个人防御力</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <r>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+  </si>
+  <si>
+    <t>攻击者</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>vlookup各种用法参考</t>
+  </si>
+  <si>
+    <t>https://tyi45di4ct.jiandaoyun.com/f/612dec1be950b10008c1abbc</t>
+  </si>
 </sst>
 </file>
 
@@ -325,10 +371,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -342,18 +401,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -507,13 +554,26 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -814,10 +874,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,16 +886,16 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,10 +907,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,28 +931,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -901,19 +961,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,48 +982,52 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1031,6 +1092,6413 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4">
+            <v>0</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>3</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>莫穿林</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>莫桥山庄掌门</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>38</v>
+          </cell>
+          <cell r="J4">
+            <v>38</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>100</v>
+          </cell>
+          <cell r="N4">
+            <v>0</v>
+          </cell>
+          <cell r="O4">
+            <v>-1</v>
+          </cell>
+          <cell r="P4">
+            <v>-1</v>
+          </cell>
+          <cell r="Q4">
+            <v>0</v>
+          </cell>
+          <cell r="R4">
+            <v>26</v>
+          </cell>
+          <cell r="S4">
+            <v>26</v>
+          </cell>
+          <cell r="T4">
+            <v>27</v>
+          </cell>
+          <cell r="U4">
+            <v>27</v>
+          </cell>
+          <cell r="V4">
+            <v>27</v>
+          </cell>
+          <cell r="W4">
+            <v>30</v>
+          </cell>
+          <cell r="X4">
+            <v>30</v>
+          </cell>
+          <cell r="Y4">
+            <v>23</v>
+          </cell>
+          <cell r="Z4">
+            <v>25</v>
+          </cell>
+          <cell r="AA4">
+            <v>30</v>
+          </cell>
+          <cell r="AB4">
+            <v>28</v>
+          </cell>
+          <cell r="AC4">
+            <v>26</v>
+          </cell>
+          <cell r="AD4">
+            <v>24</v>
+          </cell>
+          <cell r="AE4">
+            <v>25</v>
+          </cell>
+          <cell r="AF4">
+            <v>0</v>
+          </cell>
+          <cell r="AG4">
+            <v>50</v>
+          </cell>
+          <cell r="AH4">
+            <v>0</v>
+          </cell>
+          <cell r="AI4">
+            <v>0</v>
+          </cell>
+          <cell r="AJ4">
+            <v>0</v>
+          </cell>
+          <cell r="AK4">
+            <v>39</v>
+          </cell>
+          <cell r="AL4">
+            <v>-1</v>
+          </cell>
+          <cell r="AM4">
+            <v>0</v>
+          </cell>
+          <cell r="AN4" t="str">
+            <v>0,0</v>
+          </cell>
+          <cell r="AO4" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>10</v>
+          </cell>
+          <cell r="B5">
+            <v>10</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>何云多</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>莫桥山庄弟子</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>16</v>
+          </cell>
+          <cell r="H5">
+            <v>9250</v>
+          </cell>
+          <cell r="I5">
+            <v>308</v>
+          </cell>
+          <cell r="J5">
+            <v>308</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>90</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>-1</v>
+          </cell>
+          <cell r="P5">
+            <v>-1</v>
+          </cell>
+          <cell r="Q5">
+            <v>2</v>
+          </cell>
+          <cell r="R5">
+            <v>350</v>
+          </cell>
+          <cell r="S5">
+            <v>350</v>
+          </cell>
+          <cell r="T5">
+            <v>75</v>
+          </cell>
+          <cell r="U5">
+            <v>66</v>
+          </cell>
+          <cell r="V5">
+            <v>75</v>
+          </cell>
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+          <cell r="X5">
+            <v>0</v>
+          </cell>
+          <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
+            <v>0</v>
+          </cell>
+          <cell r="AA5">
+            <v>0</v>
+          </cell>
+          <cell r="AB5">
+            <v>75</v>
+          </cell>
+          <cell r="AC5">
+            <v>0</v>
+          </cell>
+          <cell r="AD5">
+            <v>0</v>
+          </cell>
+          <cell r="AE5">
+            <v>30</v>
+          </cell>
+          <cell r="AF5">
+            <v>50</v>
+          </cell>
+          <cell r="AG5">
+            <v>50</v>
+          </cell>
+          <cell r="AH5">
+            <v>0</v>
+          </cell>
+          <cell r="AI5">
+            <v>0</v>
+          </cell>
+          <cell r="AJ5">
+            <v>0</v>
+          </cell>
+          <cell r="AK5">
+            <v>80</v>
+          </cell>
+          <cell r="AL5">
+            <v>-1</v>
+          </cell>
+          <cell r="AM5">
+            <v>0</v>
+          </cell>
+          <cell r="AN5" t="str">
+            <v>10,400</v>
+          </cell>
+          <cell r="AO5" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>11</v>
+          </cell>
+          <cell r="B6">
+            <v>11</v>
+          </cell>
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>朱云天</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>莫桥山庄弟子</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>6</v>
+          </cell>
+          <cell r="H6">
+            <v>2250</v>
+          </cell>
+          <cell r="I6">
+            <v>110</v>
+          </cell>
+          <cell r="J6">
+            <v>110</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+          <cell r="M6">
+            <v>90</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+          <cell r="O6">
+            <v>-1</v>
+          </cell>
+          <cell r="P6">
+            <v>-1</v>
+          </cell>
+          <cell r="Q6">
+            <v>1</v>
+          </cell>
+          <cell r="R6">
+            <v>88</v>
+          </cell>
+          <cell r="S6">
+            <v>88</v>
+          </cell>
+          <cell r="T6">
+            <v>38</v>
+          </cell>
+          <cell r="U6">
+            <v>34</v>
+          </cell>
+          <cell r="V6">
+            <v>73</v>
+          </cell>
+          <cell r="W6">
+            <v>0</v>
+          </cell>
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+          <cell r="AA6">
+            <v>12</v>
+          </cell>
+          <cell r="AB6">
+            <v>19</v>
+          </cell>
+          <cell r="AC6">
+            <v>44</v>
+          </cell>
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
+            <v>14</v>
+          </cell>
+          <cell r="AF6">
+            <v>30</v>
+          </cell>
+          <cell r="AG6">
+            <v>50</v>
+          </cell>
+          <cell r="AH6">
+            <v>0</v>
+          </cell>
+          <cell r="AI6">
+            <v>0</v>
+          </cell>
+          <cell r="AJ6">
+            <v>0</v>
+          </cell>
+          <cell r="AK6">
+            <v>40</v>
+          </cell>
+          <cell r="AL6">
+            <v>-1</v>
+          </cell>
+          <cell r="AM6">
+            <v>0</v>
+          </cell>
+          <cell r="AN6" t="str">
+            <v>10,200</v>
+          </cell>
+          <cell r="AO6" t="str">
+            <v>-1</v>
+          </cell>
+          <cell r="AP6">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>20</v>
+          </cell>
+          <cell r="B7">
+            <v>20</v>
+          </cell>
+          <cell r="C7">
+            <v>8</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>刘灯剑</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>万烛书苑掌门</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>26</v>
+          </cell>
+          <cell r="H7">
+            <v>-30036</v>
+          </cell>
+          <cell r="I7">
+            <v>722</v>
+          </cell>
+          <cell r="J7">
+            <v>722</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>0</v>
+          </cell>
+          <cell r="M7">
+            <v>90</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>-1</v>
+          </cell>
+          <cell r="P7">
+            <v>-1</v>
+          </cell>
+          <cell r="Q7">
+            <v>2</v>
+          </cell>
+          <cell r="R7">
+            <v>860</v>
+          </cell>
+          <cell r="S7">
+            <v>860</v>
+          </cell>
+          <cell r="T7">
+            <v>92</v>
+          </cell>
+          <cell r="U7">
+            <v>64</v>
+          </cell>
+          <cell r="V7">
+            <v>89</v>
+          </cell>
+          <cell r="W7">
+            <v>0</v>
+          </cell>
+          <cell r="X7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>0</v>
+          </cell>
+          <cell r="Z7">
+            <v>0</v>
+          </cell>
+          <cell r="AA7">
+            <v>10</v>
+          </cell>
+          <cell r="AB7">
+            <v>84</v>
+          </cell>
+          <cell r="AC7">
+            <v>10</v>
+          </cell>
+          <cell r="AD7">
+            <v>10</v>
+          </cell>
+          <cell r="AE7">
+            <v>10</v>
+          </cell>
+          <cell r="AF7">
+            <v>75</v>
+          </cell>
+          <cell r="AG7">
+            <v>25</v>
+          </cell>
+          <cell r="AH7">
+            <v>0</v>
+          </cell>
+          <cell r="AI7">
+            <v>0</v>
+          </cell>
+          <cell r="AJ7">
+            <v>0</v>
+          </cell>
+          <cell r="AK7">
+            <v>80</v>
+          </cell>
+          <cell r="AL7">
+            <v>-1</v>
+          </cell>
+          <cell r="AM7">
+            <v>0</v>
+          </cell>
+          <cell r="AN7" t="str">
+            <v>20,900</v>
+          </cell>
+          <cell r="AO7" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>21</v>
+          </cell>
+          <cell r="B8">
+            <v>21</v>
+          </cell>
+          <cell r="C8">
+            <v>8</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>童岿然</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>万烛书苑二当家</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>26</v>
+          </cell>
+          <cell r="H8">
+            <v>-30036</v>
+          </cell>
+          <cell r="I8">
+            <v>622</v>
+          </cell>
+          <cell r="J8">
+            <v>622</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>90</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>-1</v>
+          </cell>
+          <cell r="P8">
+            <v>-1</v>
+          </cell>
+          <cell r="Q8">
+            <v>2</v>
+          </cell>
+          <cell r="R8">
+            <v>860</v>
+          </cell>
+          <cell r="S8">
+            <v>860</v>
+          </cell>
+          <cell r="T8">
+            <v>82</v>
+          </cell>
+          <cell r="U8">
+            <v>84</v>
+          </cell>
+          <cell r="V8">
+            <v>79</v>
+          </cell>
+          <cell r="W8">
+            <v>0</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>0</v>
+          </cell>
+          <cell r="AA8">
+            <v>10</v>
+          </cell>
+          <cell r="AB8">
+            <v>74</v>
+          </cell>
+          <cell r="AC8">
+            <v>10</v>
+          </cell>
+          <cell r="AD8">
+            <v>10</v>
+          </cell>
+          <cell r="AE8">
+            <v>10</v>
+          </cell>
+          <cell r="AF8">
+            <v>70</v>
+          </cell>
+          <cell r="AG8">
+            <v>25</v>
+          </cell>
+          <cell r="AH8">
+            <v>0</v>
+          </cell>
+          <cell r="AI8">
+            <v>0</v>
+          </cell>
+          <cell r="AJ8">
+            <v>0</v>
+          </cell>
+          <cell r="AK8">
+            <v>70</v>
+          </cell>
+          <cell r="AL8">
+            <v>-1</v>
+          </cell>
+          <cell r="AM8">
+            <v>0</v>
+          </cell>
+          <cell r="AN8" t="str">
+            <v>20,800</v>
+          </cell>
+          <cell r="AO8" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>22</v>
+          </cell>
+          <cell r="B9">
+            <v>22</v>
+          </cell>
+          <cell r="C9">
+            <v>8</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>刘子蝉</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>万烛书苑少当家</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>26</v>
+          </cell>
+          <cell r="H9">
+            <v>-30036</v>
+          </cell>
+          <cell r="I9">
+            <v>522</v>
+          </cell>
+          <cell r="J9">
+            <v>522</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>90</v>
+          </cell>
+          <cell r="N9">
+            <v>0</v>
+          </cell>
+          <cell r="O9">
+            <v>-1</v>
+          </cell>
+          <cell r="P9">
+            <v>-1</v>
+          </cell>
+          <cell r="Q9">
+            <v>2</v>
+          </cell>
+          <cell r="R9">
+            <v>560</v>
+          </cell>
+          <cell r="S9">
+            <v>560</v>
+          </cell>
+          <cell r="T9">
+            <v>75</v>
+          </cell>
+          <cell r="U9">
+            <v>84</v>
+          </cell>
+          <cell r="V9">
+            <v>70</v>
+          </cell>
+          <cell r="W9">
+            <v>0</v>
+          </cell>
+          <cell r="X9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>0</v>
+          </cell>
+          <cell r="Z9">
+            <v>0</v>
+          </cell>
+          <cell r="AA9">
+            <v>10</v>
+          </cell>
+          <cell r="AB9">
+            <v>64</v>
+          </cell>
+          <cell r="AC9">
+            <v>10</v>
+          </cell>
+          <cell r="AD9">
+            <v>10</v>
+          </cell>
+          <cell r="AE9">
+            <v>10</v>
+          </cell>
+          <cell r="AF9">
+            <v>60</v>
+          </cell>
+          <cell r="AG9">
+            <v>25</v>
+          </cell>
+          <cell r="AH9">
+            <v>0</v>
+          </cell>
+          <cell r="AI9">
+            <v>0</v>
+          </cell>
+          <cell r="AJ9">
+            <v>0</v>
+          </cell>
+          <cell r="AK9">
+            <v>70</v>
+          </cell>
+          <cell r="AL9">
+            <v>-1</v>
+          </cell>
+          <cell r="AM9">
+            <v>0</v>
+          </cell>
+          <cell r="AN9" t="str">
+            <v>20,700</v>
+          </cell>
+          <cell r="AO9" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>30</v>
+          </cell>
+          <cell r="B10">
+            <v>30</v>
+          </cell>
+          <cell r="C10">
+            <v>8</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>虚寂</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>茶恩寺弟子</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>6</v>
+          </cell>
+          <cell r="H10">
+            <v>750</v>
+          </cell>
+          <cell r="I10">
+            <v>182</v>
+          </cell>
+          <cell r="J10">
+            <v>182</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>0</v>
+          </cell>
+          <cell r="M10">
+            <v>90</v>
+          </cell>
+          <cell r="N10">
+            <v>0</v>
+          </cell>
+          <cell r="O10">
+            <v>-1</v>
+          </cell>
+          <cell r="P10">
+            <v>-1</v>
+          </cell>
+          <cell r="Q10">
+            <v>1</v>
+          </cell>
+          <cell r="R10">
+            <v>386</v>
+          </cell>
+          <cell r="S10">
+            <v>386</v>
+          </cell>
+          <cell r="T10">
+            <v>62</v>
+          </cell>
+          <cell r="U10">
+            <v>48</v>
+          </cell>
+          <cell r="V10">
+            <v>77</v>
+          </cell>
+          <cell r="W10">
+            <v>0</v>
+          </cell>
+          <cell r="X10">
+            <v>0</v>
+          </cell>
+          <cell r="Y10">
+            <v>0</v>
+          </cell>
+          <cell r="Z10">
+            <v>0</v>
+          </cell>
+          <cell r="AA10">
+            <v>42</v>
+          </cell>
+          <cell r="AB10">
+            <v>11</v>
+          </cell>
+          <cell r="AC10">
+            <v>15</v>
+          </cell>
+          <cell r="AD10">
+            <v>6</v>
+          </cell>
+          <cell r="AE10">
+            <v>17</v>
+          </cell>
+          <cell r="AF10">
+            <v>50</v>
+          </cell>
+          <cell r="AG10">
+            <v>38</v>
+          </cell>
+          <cell r="AH10">
+            <v>0</v>
+          </cell>
+          <cell r="AI10">
+            <v>0</v>
+          </cell>
+          <cell r="AJ10">
+            <v>0</v>
+          </cell>
+          <cell r="AK10">
+            <v>61</v>
+          </cell>
+          <cell r="AL10">
+            <v>-1</v>
+          </cell>
+          <cell r="AM10">
+            <v>0</v>
+          </cell>
+          <cell r="AN10" t="str">
+            <v>30,100</v>
+          </cell>
+          <cell r="AO10" t="str">
+            <v>34,1</v>
+          </cell>
+          <cell r="AP10">
+            <v>310</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>31</v>
+          </cell>
+          <cell r="B11">
+            <v>31</v>
+          </cell>
+          <cell r="C11">
+            <v>4</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>寿眉大师</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>茶恩寺住持方丈</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>36</v>
+          </cell>
+          <cell r="H11">
+            <v>-9036</v>
+          </cell>
+          <cell r="I11">
+            <v>992</v>
+          </cell>
+          <cell r="J11">
+            <v>992</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+          <cell r="M11">
+            <v>90</v>
+          </cell>
+          <cell r="N11">
+            <v>0</v>
+          </cell>
+          <cell r="O11">
+            <v>-1</v>
+          </cell>
+          <cell r="P11">
+            <v>-1</v>
+          </cell>
+          <cell r="Q11">
+            <v>1</v>
+          </cell>
+          <cell r="R11">
+            <v>999</v>
+          </cell>
+          <cell r="S11">
+            <v>999</v>
+          </cell>
+          <cell r="T11">
+            <v>99</v>
+          </cell>
+          <cell r="U11">
+            <v>99</v>
+          </cell>
+          <cell r="V11">
+            <v>99</v>
+          </cell>
+          <cell r="W11">
+            <v>0</v>
+          </cell>
+          <cell r="X11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>0</v>
+          </cell>
+          <cell r="AA11">
+            <v>99</v>
+          </cell>
+          <cell r="AB11">
+            <v>10</v>
+          </cell>
+          <cell r="AC11">
+            <v>10</v>
+          </cell>
+          <cell r="AD11">
+            <v>10</v>
+          </cell>
+          <cell r="AE11">
+            <v>10</v>
+          </cell>
+          <cell r="AF11">
+            <v>90</v>
+          </cell>
+          <cell r="AG11">
+            <v>95</v>
+          </cell>
+          <cell r="AH11">
+            <v>0</v>
+          </cell>
+          <cell r="AI11">
+            <v>0</v>
+          </cell>
+          <cell r="AJ11">
+            <v>0</v>
+          </cell>
+          <cell r="AK11">
+            <v>90</v>
+          </cell>
+          <cell r="AL11">
+            <v>-1</v>
+          </cell>
+          <cell r="AM11">
+            <v>0</v>
+          </cell>
+          <cell r="AN11" t="str">
+            <v>31,900|32,900|33,900</v>
+          </cell>
+          <cell r="AO11" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>40</v>
+          </cell>
+          <cell r="B12">
+            <v>40</v>
+          </cell>
+          <cell r="C12">
+            <v>4</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>萨擎苍</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>钟鸣阁掌门</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>31</v>
+          </cell>
+          <cell r="H12">
+            <v>-9036</v>
+          </cell>
+          <cell r="I12">
+            <v>885</v>
+          </cell>
+          <cell r="J12">
+            <v>885</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+          <cell r="M12">
+            <v>90</v>
+          </cell>
+          <cell r="N12">
+            <v>0</v>
+          </cell>
+          <cell r="O12">
+            <v>-1</v>
+          </cell>
+          <cell r="P12">
+            <v>-1</v>
+          </cell>
+          <cell r="Q12">
+            <v>1</v>
+          </cell>
+          <cell r="R12">
+            <v>900</v>
+          </cell>
+          <cell r="S12">
+            <v>900</v>
+          </cell>
+          <cell r="T12">
+            <v>79</v>
+          </cell>
+          <cell r="U12">
+            <v>70</v>
+          </cell>
+          <cell r="V12">
+            <v>79</v>
+          </cell>
+          <cell r="W12">
+            <v>10</v>
+          </cell>
+          <cell r="X12">
+            <v>10</v>
+          </cell>
+          <cell r="Y12">
+            <v>15</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+          <cell r="AA12">
+            <v>98</v>
+          </cell>
+          <cell r="AB12">
+            <v>50</v>
+          </cell>
+          <cell r="AC12">
+            <v>89</v>
+          </cell>
+          <cell r="AD12">
+            <v>0</v>
+          </cell>
+          <cell r="AE12">
+            <v>20</v>
+          </cell>
+          <cell r="AF12">
+            <v>80</v>
+          </cell>
+          <cell r="AG12">
+            <v>50</v>
+          </cell>
+          <cell r="AH12">
+            <v>0</v>
+          </cell>
+          <cell r="AI12">
+            <v>0</v>
+          </cell>
+          <cell r="AJ12">
+            <v>0</v>
+          </cell>
+          <cell r="AK12">
+            <v>80</v>
+          </cell>
+          <cell r="AL12">
+            <v>-1</v>
+          </cell>
+          <cell r="AM12">
+            <v>0</v>
+          </cell>
+          <cell r="AN12" t="str">
+            <v>40,900|41,900</v>
+          </cell>
+          <cell r="AO12" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>41</v>
+          </cell>
+          <cell r="B13">
+            <v>41</v>
+          </cell>
+          <cell r="C13">
+            <v>4</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>周理</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>钟鸣阁弟子</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>14</v>
+          </cell>
+          <cell r="H13">
+            <v>6350</v>
+          </cell>
+          <cell r="I13">
+            <v>230</v>
+          </cell>
+          <cell r="J13">
+            <v>230</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+          <cell r="M13">
+            <v>90</v>
+          </cell>
+          <cell r="N13">
+            <v>0</v>
+          </cell>
+          <cell r="O13">
+            <v>-1</v>
+          </cell>
+          <cell r="P13">
+            <v>-1</v>
+          </cell>
+          <cell r="Q13">
+            <v>1</v>
+          </cell>
+          <cell r="R13">
+            <v>290</v>
+          </cell>
+          <cell r="S13">
+            <v>290</v>
+          </cell>
+          <cell r="T13">
+            <v>77</v>
+          </cell>
+          <cell r="U13">
+            <v>60</v>
+          </cell>
+          <cell r="V13">
+            <v>65</v>
+          </cell>
+          <cell r="W13">
+            <v>0</v>
+          </cell>
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+          <cell r="AA13">
+            <v>10</v>
+          </cell>
+          <cell r="AB13">
+            <v>10</v>
+          </cell>
+          <cell r="AC13">
+            <v>10</v>
+          </cell>
+          <cell r="AD13">
+            <v>50</v>
+          </cell>
+          <cell r="AE13">
+            <v>50</v>
+          </cell>
+          <cell r="AF13">
+            <v>50</v>
+          </cell>
+          <cell r="AG13">
+            <v>50</v>
+          </cell>
+          <cell r="AH13">
+            <v>0</v>
+          </cell>
+          <cell r="AI13">
+            <v>0</v>
+          </cell>
+          <cell r="AJ13">
+            <v>0</v>
+          </cell>
+          <cell r="AK13">
+            <v>60</v>
+          </cell>
+          <cell r="AL13">
+            <v>-1</v>
+          </cell>
+          <cell r="AM13">
+            <v>0</v>
+          </cell>
+          <cell r="AN13" t="str">
+            <v>42,900</v>
+          </cell>
+          <cell r="AO13" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>42</v>
+          </cell>
+          <cell r="B14">
+            <v>42</v>
+          </cell>
+          <cell r="C14">
+            <v>4</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>周璟</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>钟鸣阁弟子</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>12</v>
+          </cell>
+          <cell r="H14">
+            <v>2250</v>
+          </cell>
+          <cell r="I14">
+            <v>230</v>
+          </cell>
+          <cell r="J14">
+            <v>230</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+          <cell r="M14">
+            <v>90</v>
+          </cell>
+          <cell r="N14">
+            <v>0</v>
+          </cell>
+          <cell r="O14">
+            <v>-1</v>
+          </cell>
+          <cell r="P14">
+            <v>-1</v>
+          </cell>
+          <cell r="Q14">
+            <v>1</v>
+          </cell>
+          <cell r="R14">
+            <v>280</v>
+          </cell>
+          <cell r="S14">
+            <v>280</v>
+          </cell>
+          <cell r="T14">
+            <v>71</v>
+          </cell>
+          <cell r="U14">
+            <v>68</v>
+          </cell>
+          <cell r="V14">
+            <v>75</v>
+          </cell>
+          <cell r="W14">
+            <v>0</v>
+          </cell>
+          <cell r="X14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+          <cell r="Z14">
+            <v>0</v>
+          </cell>
+          <cell r="AA14">
+            <v>10</v>
+          </cell>
+          <cell r="AB14">
+            <v>10</v>
+          </cell>
+          <cell r="AC14">
+            <v>10</v>
+          </cell>
+          <cell r="AD14">
+            <v>45</v>
+          </cell>
+          <cell r="AE14">
+            <v>30</v>
+          </cell>
+          <cell r="AF14">
+            <v>50</v>
+          </cell>
+          <cell r="AG14">
+            <v>20</v>
+          </cell>
+          <cell r="AH14">
+            <v>0</v>
+          </cell>
+          <cell r="AI14">
+            <v>0</v>
+          </cell>
+          <cell r="AJ14">
+            <v>0</v>
+          </cell>
+          <cell r="AK14">
+            <v>60</v>
+          </cell>
+          <cell r="AL14">
+            <v>-1</v>
+          </cell>
+          <cell r="AM14">
+            <v>0</v>
+          </cell>
+          <cell r="AN14" t="str">
+            <v>42,800</v>
+          </cell>
+          <cell r="AO14" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>60</v>
+          </cell>
+          <cell r="B15">
+            <v>60</v>
+          </cell>
+          <cell r="C15">
+            <v>7</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>王远</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>将军府大将军</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>26</v>
+          </cell>
+          <cell r="H15">
+            <v>-22086</v>
+          </cell>
+          <cell r="I15">
+            <v>999</v>
+          </cell>
+          <cell r="J15">
+            <v>999</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+          <cell r="M15">
+            <v>90</v>
+          </cell>
+          <cell r="N15">
+            <v>0</v>
+          </cell>
+          <cell r="O15">
+            <v>-1</v>
+          </cell>
+          <cell r="P15">
+            <v>-1</v>
+          </cell>
+          <cell r="Q15">
+            <v>1</v>
+          </cell>
+          <cell r="R15">
+            <v>900</v>
+          </cell>
+          <cell r="S15">
+            <v>900</v>
+          </cell>
+          <cell r="T15">
+            <v>85</v>
+          </cell>
+          <cell r="U15">
+            <v>68</v>
+          </cell>
+          <cell r="V15">
+            <v>99</v>
+          </cell>
+          <cell r="W15">
+            <v>0</v>
+          </cell>
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+          <cell r="Z15">
+            <v>0</v>
+          </cell>
+          <cell r="AA15">
+            <v>90</v>
+          </cell>
+          <cell r="AB15">
+            <v>73</v>
+          </cell>
+          <cell r="AC15">
+            <v>69</v>
+          </cell>
+          <cell r="AD15">
+            <v>85</v>
+          </cell>
+          <cell r="AE15">
+            <v>44</v>
+          </cell>
+          <cell r="AF15">
+            <v>70</v>
+          </cell>
+          <cell r="AG15">
+            <v>90</v>
+          </cell>
+          <cell r="AH15">
+            <v>0</v>
+          </cell>
+          <cell r="AI15">
+            <v>0</v>
+          </cell>
+          <cell r="AJ15">
+            <v>0</v>
+          </cell>
+          <cell r="AK15">
+            <v>80</v>
+          </cell>
+          <cell r="AL15">
+            <v>-1</v>
+          </cell>
+          <cell r="AM15">
+            <v>0</v>
+          </cell>
+          <cell r="AN15" t="str">
+            <v>60,700|61,900</v>
+          </cell>
+          <cell r="AO15" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>61</v>
+          </cell>
+          <cell r="B16">
+            <v>61</v>
+          </cell>
+          <cell r="C16">
+            <v>5</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>伏格多</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>最终boss</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>40</v>
+          </cell>
+          <cell r="H16">
+            <v>-9036</v>
+          </cell>
+          <cell r="I16">
+            <v>999</v>
+          </cell>
+          <cell r="J16">
+            <v>999</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+          <cell r="M16">
+            <v>90</v>
+          </cell>
+          <cell r="N16">
+            <v>0</v>
+          </cell>
+          <cell r="O16">
+            <v>-1</v>
+          </cell>
+          <cell r="P16">
+            <v>-1</v>
+          </cell>
+          <cell r="Q16">
+            <v>1</v>
+          </cell>
+          <cell r="R16">
+            <v>999</v>
+          </cell>
+          <cell r="S16">
+            <v>999</v>
+          </cell>
+          <cell r="T16">
+            <v>99</v>
+          </cell>
+          <cell r="U16">
+            <v>99</v>
+          </cell>
+          <cell r="V16">
+            <v>99</v>
+          </cell>
+          <cell r="W16">
+            <v>0</v>
+          </cell>
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
+          </cell>
+          <cell r="Z16">
+            <v>99</v>
+          </cell>
+          <cell r="AA16">
+            <v>99</v>
+          </cell>
+          <cell r="AB16">
+            <v>10</v>
+          </cell>
+          <cell r="AC16">
+            <v>10</v>
+          </cell>
+          <cell r="AD16">
+            <v>10</v>
+          </cell>
+          <cell r="AE16">
+            <v>10</v>
+          </cell>
+          <cell r="AF16">
+            <v>80</v>
+          </cell>
+          <cell r="AG16">
+            <v>20</v>
+          </cell>
+          <cell r="AH16">
+            <v>99</v>
+          </cell>
+          <cell r="AI16">
+            <v>0</v>
+          </cell>
+          <cell r="AJ16">
+            <v>0</v>
+          </cell>
+          <cell r="AK16">
+            <v>80</v>
+          </cell>
+          <cell r="AL16">
+            <v>-1</v>
+          </cell>
+          <cell r="AM16">
+            <v>0</v>
+          </cell>
+          <cell r="AN16" t="str">
+            <v>62,900</v>
+          </cell>
+          <cell r="AO16" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>62</v>
+          </cell>
+          <cell r="B17">
+            <v>62</v>
+          </cell>
+          <cell r="C17">
+            <v>4</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>14</v>
+          </cell>
+          <cell r="H17">
+            <v>6350</v>
+          </cell>
+          <cell r="I17">
+            <v>230</v>
+          </cell>
+          <cell r="J17">
+            <v>230</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+          <cell r="M17">
+            <v>90</v>
+          </cell>
+          <cell r="N17">
+            <v>0</v>
+          </cell>
+          <cell r="O17">
+            <v>-1</v>
+          </cell>
+          <cell r="P17">
+            <v>-1</v>
+          </cell>
+          <cell r="Q17">
+            <v>1</v>
+          </cell>
+          <cell r="R17">
+            <v>290</v>
+          </cell>
+          <cell r="S17">
+            <v>290</v>
+          </cell>
+          <cell r="T17">
+            <v>77</v>
+          </cell>
+          <cell r="U17">
+            <v>60</v>
+          </cell>
+          <cell r="V17">
+            <v>65</v>
+          </cell>
+          <cell r="W17">
+            <v>0</v>
+          </cell>
+          <cell r="X17">
+            <v>0</v>
+          </cell>
+          <cell r="Y17">
+            <v>0</v>
+          </cell>
+          <cell r="Z17">
+            <v>0</v>
+          </cell>
+          <cell r="AA17">
+            <v>10</v>
+          </cell>
+          <cell r="AB17">
+            <v>10</v>
+          </cell>
+          <cell r="AC17">
+            <v>10</v>
+          </cell>
+          <cell r="AD17">
+            <v>50</v>
+          </cell>
+          <cell r="AE17">
+            <v>50</v>
+          </cell>
+          <cell r="AF17">
+            <v>20</v>
+          </cell>
+          <cell r="AG17">
+            <v>50</v>
+          </cell>
+          <cell r="AH17">
+            <v>0</v>
+          </cell>
+          <cell r="AI17">
+            <v>0</v>
+          </cell>
+          <cell r="AJ17">
+            <v>0</v>
+          </cell>
+          <cell r="AK17">
+            <v>40</v>
+          </cell>
+          <cell r="AL17">
+            <v>-1</v>
+          </cell>
+          <cell r="AM17">
+            <v>0</v>
+          </cell>
+          <cell r="AN17" t="str">
+            <v>61,500</v>
+          </cell>
+          <cell r="AO17" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>63</v>
+          </cell>
+          <cell r="B18">
+            <v>62</v>
+          </cell>
+          <cell r="C18">
+            <v>4</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>14</v>
+          </cell>
+          <cell r="H18">
+            <v>6350</v>
+          </cell>
+          <cell r="I18">
+            <v>230</v>
+          </cell>
+          <cell r="J18">
+            <v>230</v>
+          </cell>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
+          <cell r="L18">
+            <v>0</v>
+          </cell>
+          <cell r="M18">
+            <v>90</v>
+          </cell>
+          <cell r="N18">
+            <v>0</v>
+          </cell>
+          <cell r="O18">
+            <v>-1</v>
+          </cell>
+          <cell r="P18">
+            <v>-1</v>
+          </cell>
+          <cell r="Q18">
+            <v>1</v>
+          </cell>
+          <cell r="R18">
+            <v>290</v>
+          </cell>
+          <cell r="S18">
+            <v>290</v>
+          </cell>
+          <cell r="T18">
+            <v>77</v>
+          </cell>
+          <cell r="U18">
+            <v>60</v>
+          </cell>
+          <cell r="V18">
+            <v>65</v>
+          </cell>
+          <cell r="W18">
+            <v>0</v>
+          </cell>
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+          <cell r="Y18">
+            <v>0</v>
+          </cell>
+          <cell r="Z18">
+            <v>0</v>
+          </cell>
+          <cell r="AA18">
+            <v>10</v>
+          </cell>
+          <cell r="AB18">
+            <v>10</v>
+          </cell>
+          <cell r="AC18">
+            <v>10</v>
+          </cell>
+          <cell r="AD18">
+            <v>50</v>
+          </cell>
+          <cell r="AE18">
+            <v>50</v>
+          </cell>
+          <cell r="AF18">
+            <v>20</v>
+          </cell>
+          <cell r="AG18">
+            <v>50</v>
+          </cell>
+          <cell r="AH18">
+            <v>0</v>
+          </cell>
+          <cell r="AI18">
+            <v>0</v>
+          </cell>
+          <cell r="AJ18">
+            <v>0</v>
+          </cell>
+          <cell r="AK18">
+            <v>40</v>
+          </cell>
+          <cell r="AL18">
+            <v>-1</v>
+          </cell>
+          <cell r="AM18">
+            <v>0</v>
+          </cell>
+          <cell r="AN18" t="str">
+            <v>61,500</v>
+          </cell>
+          <cell r="AO18" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>64</v>
+          </cell>
+          <cell r="B19">
+            <v>62</v>
+          </cell>
+          <cell r="C19">
+            <v>4</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>14</v>
+          </cell>
+          <cell r="H19">
+            <v>6350</v>
+          </cell>
+          <cell r="I19">
+            <v>230</v>
+          </cell>
+          <cell r="J19">
+            <v>230</v>
+          </cell>
+          <cell r="K19">
+            <v>0</v>
+          </cell>
+          <cell r="L19">
+            <v>0</v>
+          </cell>
+          <cell r="M19">
+            <v>90</v>
+          </cell>
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>-1</v>
+          </cell>
+          <cell r="P19">
+            <v>-1</v>
+          </cell>
+          <cell r="Q19">
+            <v>1</v>
+          </cell>
+          <cell r="R19">
+            <v>290</v>
+          </cell>
+          <cell r="S19">
+            <v>290</v>
+          </cell>
+          <cell r="T19">
+            <v>77</v>
+          </cell>
+          <cell r="U19">
+            <v>60</v>
+          </cell>
+          <cell r="V19">
+            <v>65</v>
+          </cell>
+          <cell r="W19">
+            <v>0</v>
+          </cell>
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+          <cell r="Y19">
+            <v>0</v>
+          </cell>
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+          <cell r="AA19">
+            <v>10</v>
+          </cell>
+          <cell r="AB19">
+            <v>10</v>
+          </cell>
+          <cell r="AC19">
+            <v>10</v>
+          </cell>
+          <cell r="AD19">
+            <v>50</v>
+          </cell>
+          <cell r="AE19">
+            <v>50</v>
+          </cell>
+          <cell r="AF19">
+            <v>20</v>
+          </cell>
+          <cell r="AG19">
+            <v>50</v>
+          </cell>
+          <cell r="AH19">
+            <v>0</v>
+          </cell>
+          <cell r="AI19">
+            <v>0</v>
+          </cell>
+          <cell r="AJ19">
+            <v>0</v>
+          </cell>
+          <cell r="AK19">
+            <v>40</v>
+          </cell>
+          <cell r="AL19">
+            <v>-1</v>
+          </cell>
+          <cell r="AM19">
+            <v>0</v>
+          </cell>
+          <cell r="AN19" t="str">
+            <v>61,500</v>
+          </cell>
+          <cell r="AO19" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>65</v>
+          </cell>
+          <cell r="B20">
+            <v>62</v>
+          </cell>
+          <cell r="C20">
+            <v>4</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>14</v>
+          </cell>
+          <cell r="H20">
+            <v>6350</v>
+          </cell>
+          <cell r="I20">
+            <v>230</v>
+          </cell>
+          <cell r="J20">
+            <v>230</v>
+          </cell>
+          <cell r="K20">
+            <v>0</v>
+          </cell>
+          <cell r="L20">
+            <v>0</v>
+          </cell>
+          <cell r="M20">
+            <v>90</v>
+          </cell>
+          <cell r="N20">
+            <v>0</v>
+          </cell>
+          <cell r="O20">
+            <v>-1</v>
+          </cell>
+          <cell r="P20">
+            <v>-1</v>
+          </cell>
+          <cell r="Q20">
+            <v>1</v>
+          </cell>
+          <cell r="R20">
+            <v>290</v>
+          </cell>
+          <cell r="S20">
+            <v>290</v>
+          </cell>
+          <cell r="T20">
+            <v>77</v>
+          </cell>
+          <cell r="U20">
+            <v>60</v>
+          </cell>
+          <cell r="V20">
+            <v>65</v>
+          </cell>
+          <cell r="W20">
+            <v>0</v>
+          </cell>
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>0</v>
+          </cell>
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+          <cell r="AA20">
+            <v>10</v>
+          </cell>
+          <cell r="AB20">
+            <v>10</v>
+          </cell>
+          <cell r="AC20">
+            <v>10</v>
+          </cell>
+          <cell r="AD20">
+            <v>50</v>
+          </cell>
+          <cell r="AE20">
+            <v>50</v>
+          </cell>
+          <cell r="AF20">
+            <v>20</v>
+          </cell>
+          <cell r="AG20">
+            <v>50</v>
+          </cell>
+          <cell r="AH20">
+            <v>0</v>
+          </cell>
+          <cell r="AI20">
+            <v>0</v>
+          </cell>
+          <cell r="AJ20">
+            <v>0</v>
+          </cell>
+          <cell r="AK20">
+            <v>40</v>
+          </cell>
+          <cell r="AL20">
+            <v>-1</v>
+          </cell>
+          <cell r="AM20">
+            <v>0</v>
+          </cell>
+          <cell r="AN20" t="str">
+            <v>61,500</v>
+          </cell>
+          <cell r="AO20" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>66</v>
+          </cell>
+          <cell r="B21">
+            <v>62</v>
+          </cell>
+          <cell r="C21">
+            <v>4</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>14</v>
+          </cell>
+          <cell r="H21">
+            <v>6350</v>
+          </cell>
+          <cell r="I21">
+            <v>330</v>
+          </cell>
+          <cell r="J21">
+            <v>330</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
+          <cell r="M21">
+            <v>90</v>
+          </cell>
+          <cell r="N21">
+            <v>0</v>
+          </cell>
+          <cell r="O21">
+            <v>-1</v>
+          </cell>
+          <cell r="P21">
+            <v>-1</v>
+          </cell>
+          <cell r="Q21">
+            <v>1</v>
+          </cell>
+          <cell r="R21">
+            <v>300</v>
+          </cell>
+          <cell r="S21">
+            <v>300</v>
+          </cell>
+          <cell r="T21">
+            <v>77</v>
+          </cell>
+          <cell r="U21">
+            <v>60</v>
+          </cell>
+          <cell r="V21">
+            <v>65</v>
+          </cell>
+          <cell r="W21">
+            <v>0</v>
+          </cell>
+          <cell r="X21">
+            <v>0</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+          <cell r="Z21">
+            <v>0</v>
+          </cell>
+          <cell r="AA21">
+            <v>10</v>
+          </cell>
+          <cell r="AB21">
+            <v>10</v>
+          </cell>
+          <cell r="AC21">
+            <v>10</v>
+          </cell>
+          <cell r="AD21">
+            <v>50</v>
+          </cell>
+          <cell r="AE21">
+            <v>50</v>
+          </cell>
+          <cell r="AF21">
+            <v>20</v>
+          </cell>
+          <cell r="AG21">
+            <v>50</v>
+          </cell>
+          <cell r="AH21">
+            <v>0</v>
+          </cell>
+          <cell r="AI21">
+            <v>0</v>
+          </cell>
+          <cell r="AJ21">
+            <v>0</v>
+          </cell>
+          <cell r="AK21">
+            <v>40</v>
+          </cell>
+          <cell r="AL21">
+            <v>-1</v>
+          </cell>
+          <cell r="AM21">
+            <v>0</v>
+          </cell>
+          <cell r="AN21" t="str">
+            <v>61,700</v>
+          </cell>
+          <cell r="AO21" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>67</v>
+          </cell>
+          <cell r="B22">
+            <v>62</v>
+          </cell>
+          <cell r="C22">
+            <v>4</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>14</v>
+          </cell>
+          <cell r="H22">
+            <v>6350</v>
+          </cell>
+          <cell r="I22">
+            <v>330</v>
+          </cell>
+          <cell r="J22">
+            <v>330</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>0</v>
+          </cell>
+          <cell r="M22">
+            <v>90</v>
+          </cell>
+          <cell r="N22">
+            <v>0</v>
+          </cell>
+          <cell r="O22">
+            <v>-1</v>
+          </cell>
+          <cell r="P22">
+            <v>-1</v>
+          </cell>
+          <cell r="Q22">
+            <v>1</v>
+          </cell>
+          <cell r="R22">
+            <v>300</v>
+          </cell>
+          <cell r="S22">
+            <v>300</v>
+          </cell>
+          <cell r="T22">
+            <v>77</v>
+          </cell>
+          <cell r="U22">
+            <v>60</v>
+          </cell>
+          <cell r="V22">
+            <v>65</v>
+          </cell>
+          <cell r="W22">
+            <v>0</v>
+          </cell>
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>0</v>
+          </cell>
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+          <cell r="AA22">
+            <v>10</v>
+          </cell>
+          <cell r="AB22">
+            <v>10</v>
+          </cell>
+          <cell r="AC22">
+            <v>10</v>
+          </cell>
+          <cell r="AD22">
+            <v>50</v>
+          </cell>
+          <cell r="AE22">
+            <v>50</v>
+          </cell>
+          <cell r="AF22">
+            <v>20</v>
+          </cell>
+          <cell r="AG22">
+            <v>50</v>
+          </cell>
+          <cell r="AH22">
+            <v>0</v>
+          </cell>
+          <cell r="AI22">
+            <v>0</v>
+          </cell>
+          <cell r="AJ22">
+            <v>0</v>
+          </cell>
+          <cell r="AK22">
+            <v>40</v>
+          </cell>
+          <cell r="AL22">
+            <v>-1</v>
+          </cell>
+          <cell r="AM22">
+            <v>0</v>
+          </cell>
+          <cell r="AN22" t="str">
+            <v>61,700</v>
+          </cell>
+          <cell r="AO22" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>68</v>
+          </cell>
+          <cell r="B23">
+            <v>62</v>
+          </cell>
+          <cell r="C23">
+            <v>4</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="G23">
+            <v>14</v>
+          </cell>
+          <cell r="H23">
+            <v>6350</v>
+          </cell>
+          <cell r="I23">
+            <v>330</v>
+          </cell>
+          <cell r="J23">
+            <v>330</v>
+          </cell>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>0</v>
+          </cell>
+          <cell r="M23">
+            <v>90</v>
+          </cell>
+          <cell r="N23">
+            <v>0</v>
+          </cell>
+          <cell r="O23">
+            <v>-1</v>
+          </cell>
+          <cell r="P23">
+            <v>-1</v>
+          </cell>
+          <cell r="Q23">
+            <v>1</v>
+          </cell>
+          <cell r="R23">
+            <v>300</v>
+          </cell>
+          <cell r="S23">
+            <v>300</v>
+          </cell>
+          <cell r="T23">
+            <v>77</v>
+          </cell>
+          <cell r="U23">
+            <v>60</v>
+          </cell>
+          <cell r="V23">
+            <v>65</v>
+          </cell>
+          <cell r="W23">
+            <v>0</v>
+          </cell>
+          <cell r="X23">
+            <v>0</v>
+          </cell>
+          <cell r="Y23">
+            <v>0</v>
+          </cell>
+          <cell r="Z23">
+            <v>0</v>
+          </cell>
+          <cell r="AA23">
+            <v>10</v>
+          </cell>
+          <cell r="AB23">
+            <v>10</v>
+          </cell>
+          <cell r="AC23">
+            <v>10</v>
+          </cell>
+          <cell r="AD23">
+            <v>50</v>
+          </cell>
+          <cell r="AE23">
+            <v>50</v>
+          </cell>
+          <cell r="AF23">
+            <v>20</v>
+          </cell>
+          <cell r="AG23">
+            <v>50</v>
+          </cell>
+          <cell r="AH23">
+            <v>0</v>
+          </cell>
+          <cell r="AI23">
+            <v>0</v>
+          </cell>
+          <cell r="AJ23">
+            <v>0</v>
+          </cell>
+          <cell r="AK23">
+            <v>40</v>
+          </cell>
+          <cell r="AL23">
+            <v>-1</v>
+          </cell>
+          <cell r="AM23">
+            <v>0</v>
+          </cell>
+          <cell r="AN23" t="str">
+            <v>61,700</v>
+          </cell>
+          <cell r="AO23" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>69</v>
+          </cell>
+          <cell r="B24">
+            <v>62</v>
+          </cell>
+          <cell r="C24">
+            <v>4</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>将军府士兵</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>14</v>
+          </cell>
+          <cell r="H24">
+            <v>6350</v>
+          </cell>
+          <cell r="I24">
+            <v>330</v>
+          </cell>
+          <cell r="J24">
+            <v>330</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>0</v>
+          </cell>
+          <cell r="M24">
+            <v>90</v>
+          </cell>
+          <cell r="N24">
+            <v>0</v>
+          </cell>
+          <cell r="O24">
+            <v>-1</v>
+          </cell>
+          <cell r="P24">
+            <v>-1</v>
+          </cell>
+          <cell r="Q24">
+            <v>1</v>
+          </cell>
+          <cell r="R24">
+            <v>300</v>
+          </cell>
+          <cell r="S24">
+            <v>300</v>
+          </cell>
+          <cell r="T24">
+            <v>77</v>
+          </cell>
+          <cell r="U24">
+            <v>60</v>
+          </cell>
+          <cell r="V24">
+            <v>65</v>
+          </cell>
+          <cell r="W24">
+            <v>0</v>
+          </cell>
+          <cell r="X24">
+            <v>0</v>
+          </cell>
+          <cell r="Y24">
+            <v>0</v>
+          </cell>
+          <cell r="Z24">
+            <v>0</v>
+          </cell>
+          <cell r="AA24">
+            <v>10</v>
+          </cell>
+          <cell r="AB24">
+            <v>10</v>
+          </cell>
+          <cell r="AC24">
+            <v>10</v>
+          </cell>
+          <cell r="AD24">
+            <v>50</v>
+          </cell>
+          <cell r="AE24">
+            <v>50</v>
+          </cell>
+          <cell r="AF24">
+            <v>20</v>
+          </cell>
+          <cell r="AG24">
+            <v>50</v>
+          </cell>
+          <cell r="AH24">
+            <v>0</v>
+          </cell>
+          <cell r="AI24">
+            <v>0</v>
+          </cell>
+          <cell r="AJ24">
+            <v>0</v>
+          </cell>
+          <cell r="AK24">
+            <v>40</v>
+          </cell>
+          <cell r="AL24">
+            <v>-1</v>
+          </cell>
+          <cell r="AM24">
+            <v>0</v>
+          </cell>
+          <cell r="AN24" t="str">
+            <v>61,700</v>
+          </cell>
+          <cell r="AO24" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>70</v>
+          </cell>
+          <cell r="B25">
+            <v>70</v>
+          </cell>
+          <cell r="C25">
+            <v>5</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>佟雯</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>曼陀谷掌门</v>
+          </cell>
+          <cell r="F25">
+            <v>1</v>
+          </cell>
+          <cell r="G25">
+            <v>10</v>
+          </cell>
+          <cell r="H25">
+            <v>2250</v>
+          </cell>
+          <cell r="I25">
+            <v>170</v>
+          </cell>
+          <cell r="J25">
+            <v>170</v>
+          </cell>
+          <cell r="K25">
+            <v>0</v>
+          </cell>
+          <cell r="L25">
+            <v>0</v>
+          </cell>
+          <cell r="M25">
+            <v>90</v>
+          </cell>
+          <cell r="N25">
+            <v>0</v>
+          </cell>
+          <cell r="O25">
+            <v>-1</v>
+          </cell>
+          <cell r="P25">
+            <v>-1</v>
+          </cell>
+          <cell r="Q25">
+            <v>0</v>
+          </cell>
+          <cell r="R25">
+            <v>102</v>
+          </cell>
+          <cell r="S25">
+            <v>102</v>
+          </cell>
+          <cell r="T25">
+            <v>62</v>
+          </cell>
+          <cell r="U25">
+            <v>55</v>
+          </cell>
+          <cell r="V25">
+            <v>51</v>
+          </cell>
+          <cell r="W25">
+            <v>0</v>
+          </cell>
+          <cell r="X25">
+            <v>75</v>
+          </cell>
+          <cell r="Y25">
+            <v>60</v>
+          </cell>
+          <cell r="Z25">
+            <v>50</v>
+          </cell>
+          <cell r="AA25">
+            <v>52</v>
+          </cell>
+          <cell r="AB25">
+            <v>44</v>
+          </cell>
+          <cell r="AC25">
+            <v>12</v>
+          </cell>
+          <cell r="AD25">
+            <v>56</v>
+          </cell>
+          <cell r="AE25">
+            <v>46</v>
+          </cell>
+          <cell r="AF25">
+            <v>50</v>
+          </cell>
+          <cell r="AG25">
+            <v>50</v>
+          </cell>
+          <cell r="AH25">
+            <v>65</v>
+          </cell>
+          <cell r="AI25">
+            <v>0</v>
+          </cell>
+          <cell r="AJ25">
+            <v>0</v>
+          </cell>
+          <cell r="AK25">
+            <v>80</v>
+          </cell>
+          <cell r="AL25">
+            <v>-1</v>
+          </cell>
+          <cell r="AM25">
+            <v>0</v>
+          </cell>
+          <cell r="AN25" t="str">
+            <v>70,500|71,400</v>
+          </cell>
+          <cell r="AO25" t="str">
+            <v>75,1|76,1</v>
+          </cell>
+          <cell r="AP25">
+            <v>714</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>71</v>
+          </cell>
+          <cell r="B26">
+            <v>71</v>
+          </cell>
+          <cell r="C26">
+            <v>5</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>曼陀谷弟子</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>曼陀谷弟子</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>10</v>
+          </cell>
+          <cell r="H26">
+            <v>2250</v>
+          </cell>
+          <cell r="I26">
+            <v>170</v>
+          </cell>
+          <cell r="J26">
+            <v>170</v>
+          </cell>
+          <cell r="K26">
+            <v>0</v>
+          </cell>
+          <cell r="L26">
+            <v>0</v>
+          </cell>
+          <cell r="M26">
+            <v>90</v>
+          </cell>
+          <cell r="N26">
+            <v>0</v>
+          </cell>
+          <cell r="O26">
+            <v>-1</v>
+          </cell>
+          <cell r="P26">
+            <v>-1</v>
+          </cell>
+          <cell r="Q26">
+            <v>0</v>
+          </cell>
+          <cell r="R26">
+            <v>102</v>
+          </cell>
+          <cell r="S26">
+            <v>102</v>
+          </cell>
+          <cell r="T26">
+            <v>62</v>
+          </cell>
+          <cell r="U26">
+            <v>55</v>
+          </cell>
+          <cell r="V26">
+            <v>51</v>
+          </cell>
+          <cell r="W26">
+            <v>0</v>
+          </cell>
+          <cell r="X26">
+            <v>0</v>
+          </cell>
+          <cell r="Y26">
+            <v>60</v>
+          </cell>
+          <cell r="Z26">
+            <v>50</v>
+          </cell>
+          <cell r="AA26">
+            <v>52</v>
+          </cell>
+          <cell r="AB26">
+            <v>44</v>
+          </cell>
+          <cell r="AC26">
+            <v>12</v>
+          </cell>
+          <cell r="AD26">
+            <v>56</v>
+          </cell>
+          <cell r="AE26">
+            <v>46</v>
+          </cell>
+          <cell r="AF26">
+            <v>30</v>
+          </cell>
+          <cell r="AG26">
+            <v>50</v>
+          </cell>
+          <cell r="AH26">
+            <v>65</v>
+          </cell>
+          <cell r="AI26">
+            <v>0</v>
+          </cell>
+          <cell r="AJ26">
+            <v>0</v>
+          </cell>
+          <cell r="AK26">
+            <v>50</v>
+          </cell>
+          <cell r="AL26">
+            <v>-1</v>
+          </cell>
+          <cell r="AM26">
+            <v>0</v>
+          </cell>
+          <cell r="AN26" t="str">
+            <v>70,500|71,400</v>
+          </cell>
+          <cell r="AO26" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>72</v>
+          </cell>
+          <cell r="B27">
+            <v>72</v>
+          </cell>
+          <cell r="C27">
+            <v>5</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>曼陀谷弟子</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>曼陀谷弟子</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>10</v>
+          </cell>
+          <cell r="H27">
+            <v>2250</v>
+          </cell>
+          <cell r="I27">
+            <v>170</v>
+          </cell>
+          <cell r="J27">
+            <v>170</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>0</v>
+          </cell>
+          <cell r="M27">
+            <v>90</v>
+          </cell>
+          <cell r="N27">
+            <v>0</v>
+          </cell>
+          <cell r="O27">
+            <v>-1</v>
+          </cell>
+          <cell r="P27">
+            <v>-1</v>
+          </cell>
+          <cell r="Q27">
+            <v>0</v>
+          </cell>
+          <cell r="R27">
+            <v>102</v>
+          </cell>
+          <cell r="S27">
+            <v>102</v>
+          </cell>
+          <cell r="T27">
+            <v>62</v>
+          </cell>
+          <cell r="U27">
+            <v>55</v>
+          </cell>
+          <cell r="V27">
+            <v>51</v>
+          </cell>
+          <cell r="W27">
+            <v>0</v>
+          </cell>
+          <cell r="X27">
+            <v>0</v>
+          </cell>
+          <cell r="Y27">
+            <v>60</v>
+          </cell>
+          <cell r="Z27">
+            <v>50</v>
+          </cell>
+          <cell r="AA27">
+            <v>52</v>
+          </cell>
+          <cell r="AB27">
+            <v>44</v>
+          </cell>
+          <cell r="AC27">
+            <v>12</v>
+          </cell>
+          <cell r="AD27">
+            <v>56</v>
+          </cell>
+          <cell r="AE27">
+            <v>46</v>
+          </cell>
+          <cell r="AF27">
+            <v>30</v>
+          </cell>
+          <cell r="AG27">
+            <v>50</v>
+          </cell>
+          <cell r="AH27">
+            <v>65</v>
+          </cell>
+          <cell r="AI27">
+            <v>0</v>
+          </cell>
+          <cell r="AJ27">
+            <v>0</v>
+          </cell>
+          <cell r="AK27">
+            <v>50</v>
+          </cell>
+          <cell r="AL27">
+            <v>-1</v>
+          </cell>
+          <cell r="AM27">
+            <v>0</v>
+          </cell>
+          <cell r="AN27" t="str">
+            <v>70,500|71,400</v>
+          </cell>
+          <cell r="AO27" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>80</v>
+          </cell>
+          <cell r="B28">
+            <v>80</v>
+          </cell>
+          <cell r="C28">
+            <v>5</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>童四二</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>鸽子楼徐谦收留的弟子</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>2</v>
+          </cell>
+          <cell r="H28">
+            <v>50</v>
+          </cell>
+          <cell r="I28">
+            <v>68</v>
+          </cell>
+          <cell r="J28">
+            <v>68</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="M28">
+            <v>90</v>
+          </cell>
+          <cell r="N28">
+            <v>0</v>
+          </cell>
+          <cell r="O28">
+            <v>-1</v>
+          </cell>
+          <cell r="P28">
+            <v>-1</v>
+          </cell>
+          <cell r="Q28">
+            <v>2</v>
+          </cell>
+          <cell r="R28">
+            <v>25</v>
+          </cell>
+          <cell r="S28">
+            <v>25</v>
+          </cell>
+          <cell r="T28">
+            <v>21</v>
+          </cell>
+          <cell r="U28">
+            <v>43</v>
+          </cell>
+          <cell r="V28">
+            <v>18</v>
+          </cell>
+          <cell r="W28">
+            <v>0</v>
+          </cell>
+          <cell r="X28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>0</v>
+          </cell>
+          <cell r="Z28">
+            <v>0</v>
+          </cell>
+          <cell r="AA28">
+            <v>12</v>
+          </cell>
+          <cell r="AB28">
+            <v>36</v>
+          </cell>
+          <cell r="AC28">
+            <v>6</v>
+          </cell>
+          <cell r="AD28">
+            <v>3</v>
+          </cell>
+          <cell r="AE28">
+            <v>21</v>
+          </cell>
+          <cell r="AF28">
+            <v>30</v>
+          </cell>
+          <cell r="AG28">
+            <v>50</v>
+          </cell>
+          <cell r="AH28">
+            <v>0</v>
+          </cell>
+          <cell r="AI28">
+            <v>0</v>
+          </cell>
+          <cell r="AJ28">
+            <v>0</v>
+          </cell>
+          <cell r="AK28">
+            <v>90</v>
+          </cell>
+          <cell r="AL28">
+            <v>-1</v>
+          </cell>
+          <cell r="AM28">
+            <v>0</v>
+          </cell>
+          <cell r="AN28" t="str">
+            <v>0,0</v>
+          </cell>
+          <cell r="AO28" t="str">
+            <v>-1</v>
+          </cell>
+          <cell r="AP28">
+            <v>813</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>90</v>
+          </cell>
+          <cell r="B29">
+            <v>90</v>
+          </cell>
+          <cell r="C29">
+            <v>5</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>牛妞妞</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>牛头岭庄主女儿</v>
+          </cell>
+          <cell r="F29">
+            <v>1</v>
+          </cell>
+          <cell r="G29">
+            <v>2</v>
+          </cell>
+          <cell r="H29">
+            <v>50</v>
+          </cell>
+          <cell r="I29">
+            <v>38</v>
+          </cell>
+          <cell r="J29">
+            <v>38</v>
+          </cell>
+          <cell r="K29">
+            <v>0</v>
+          </cell>
+          <cell r="L29">
+            <v>0</v>
+          </cell>
+          <cell r="M29">
+            <v>100</v>
+          </cell>
+          <cell r="N29">
+            <v>0</v>
+          </cell>
+          <cell r="O29">
+            <v>-1</v>
+          </cell>
+          <cell r="P29">
+            <v>-1</v>
+          </cell>
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>21</v>
+          </cell>
+          <cell r="S29">
+            <v>21</v>
+          </cell>
+          <cell r="T29">
+            <v>14</v>
+          </cell>
+          <cell r="U29">
+            <v>30</v>
+          </cell>
+          <cell r="V29">
+            <v>22</v>
+          </cell>
+          <cell r="W29">
+            <v>0</v>
+          </cell>
+          <cell r="X29">
+            <v>0</v>
+          </cell>
+          <cell r="Y29">
+            <v>0</v>
+          </cell>
+          <cell r="Z29">
+            <v>0</v>
+          </cell>
+          <cell r="AA29">
+            <v>23</v>
+          </cell>
+          <cell r="AB29">
+            <v>18</v>
+          </cell>
+          <cell r="AC29">
+            <v>7</v>
+          </cell>
+          <cell r="AD29">
+            <v>3</v>
+          </cell>
+          <cell r="AE29">
+            <v>26</v>
+          </cell>
+          <cell r="AF29">
+            <v>30</v>
+          </cell>
+          <cell r="AG29">
+            <v>50</v>
+          </cell>
+          <cell r="AH29">
+            <v>0</v>
+          </cell>
+          <cell r="AI29">
+            <v>0</v>
+          </cell>
+          <cell r="AJ29">
+            <v>0</v>
+          </cell>
+          <cell r="AK29">
+            <v>60</v>
+          </cell>
+          <cell r="AL29">
+            <v>-1</v>
+          </cell>
+          <cell r="AM29">
+            <v>0</v>
+          </cell>
+          <cell r="AN29" t="str">
+            <v>90,300</v>
+          </cell>
+          <cell r="AO29" t="str">
+            <v>91,1</v>
+          </cell>
+          <cell r="AP29">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>91</v>
+          </cell>
+          <cell r="B30">
+            <v>91</v>
+          </cell>
+          <cell r="C30">
+            <v>7</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>牛不三</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>牛头岭庄主牛不扭的女儿</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>16</v>
+          </cell>
+          <cell r="H30">
+            <v>9250</v>
+          </cell>
+          <cell r="I30">
+            <v>308</v>
+          </cell>
+          <cell r="J30">
+            <v>308</v>
+          </cell>
+          <cell r="K30">
+            <v>0</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="M30">
+            <v>90</v>
+          </cell>
+          <cell r="N30">
+            <v>0</v>
+          </cell>
+          <cell r="O30">
+            <v>-1</v>
+          </cell>
+          <cell r="P30">
+            <v>-1</v>
+          </cell>
+          <cell r="Q30">
+            <v>1</v>
+          </cell>
+          <cell r="R30">
+            <v>590</v>
+          </cell>
+          <cell r="S30">
+            <v>590</v>
+          </cell>
+          <cell r="T30">
+            <v>65</v>
+          </cell>
+          <cell r="U30">
+            <v>60</v>
+          </cell>
+          <cell r="V30">
+            <v>72</v>
+          </cell>
+          <cell r="W30">
+            <v>0</v>
+          </cell>
+          <cell r="X30">
+            <v>0</v>
+          </cell>
+          <cell r="Y30">
+            <v>0</v>
+          </cell>
+          <cell r="Z30">
+            <v>0</v>
+          </cell>
+          <cell r="AA30">
+            <v>75</v>
+          </cell>
+          <cell r="AB30">
+            <v>56</v>
+          </cell>
+          <cell r="AC30">
+            <v>43</v>
+          </cell>
+          <cell r="AD30">
+            <v>34</v>
+          </cell>
+          <cell r="AE30">
+            <v>54</v>
+          </cell>
+          <cell r="AF30">
+            <v>50</v>
+          </cell>
+          <cell r="AG30">
+            <v>77</v>
+          </cell>
+          <cell r="AH30">
+            <v>0</v>
+          </cell>
+          <cell r="AI30">
+            <v>0</v>
+          </cell>
+          <cell r="AJ30">
+            <v>0</v>
+          </cell>
+          <cell r="AK30">
+            <v>60</v>
+          </cell>
+          <cell r="AL30">
+            <v>-1</v>
+          </cell>
+          <cell r="AM30">
+            <v>0</v>
+          </cell>
+          <cell r="AN30" t="str">
+            <v>90,800</v>
+          </cell>
+          <cell r="AO30" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>111</v>
+          </cell>
+          <cell r="B31">
+            <v>111</v>
+          </cell>
+          <cell r="C31">
+            <v>8</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>张老板</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>水果摊老板</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>6</v>
+          </cell>
+          <cell r="H31">
+            <v>750</v>
+          </cell>
+          <cell r="I31">
+            <v>482</v>
+          </cell>
+          <cell r="J31">
+            <v>482</v>
+          </cell>
+          <cell r="K31">
+            <v>0</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+          <cell r="M31">
+            <v>90</v>
+          </cell>
+          <cell r="N31">
+            <v>0</v>
+          </cell>
+          <cell r="O31">
+            <v>-1</v>
+          </cell>
+          <cell r="P31">
+            <v>-1</v>
+          </cell>
+          <cell r="Q31">
+            <v>1</v>
+          </cell>
+          <cell r="R31">
+            <v>486</v>
+          </cell>
+          <cell r="S31">
+            <v>486</v>
+          </cell>
+          <cell r="T31">
+            <v>62</v>
+          </cell>
+          <cell r="U31">
+            <v>48</v>
+          </cell>
+          <cell r="V31">
+            <v>77</v>
+          </cell>
+          <cell r="W31">
+            <v>0</v>
+          </cell>
+          <cell r="X31">
+            <v>0</v>
+          </cell>
+          <cell r="Y31">
+            <v>0</v>
+          </cell>
+          <cell r="Z31">
+            <v>0</v>
+          </cell>
+          <cell r="AA31">
+            <v>52</v>
+          </cell>
+          <cell r="AB31">
+            <v>11</v>
+          </cell>
+          <cell r="AC31">
+            <v>15</v>
+          </cell>
+          <cell r="AD31">
+            <v>6</v>
+          </cell>
+          <cell r="AE31">
+            <v>17</v>
+          </cell>
+          <cell r="AF31">
+            <v>50</v>
+          </cell>
+          <cell r="AG31">
+            <v>38</v>
+          </cell>
+          <cell r="AH31">
+            <v>0</v>
+          </cell>
+          <cell r="AI31">
+            <v>0</v>
+          </cell>
+          <cell r="AJ31">
+            <v>0</v>
+          </cell>
+          <cell r="AK31">
+            <v>61</v>
+          </cell>
+          <cell r="AL31">
+            <v>-1</v>
+          </cell>
+          <cell r="AM31">
+            <v>0</v>
+          </cell>
+          <cell r="AN31" t="str">
+            <v>30,800</v>
+          </cell>
+          <cell r="AO31" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>123</v>
+          </cell>
+          <cell r="B32">
+            <v>123</v>
+          </cell>
+          <cell r="C32">
+            <v>7</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>隋青竹</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>隋仙堂神医</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>5</v>
+          </cell>
+          <cell r="H32">
+            <v>500</v>
+          </cell>
+          <cell r="I32">
+            <v>95</v>
+          </cell>
+          <cell r="J32">
+            <v>95</v>
+          </cell>
+          <cell r="K32">
+            <v>0</v>
+          </cell>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
+          <cell r="M32">
+            <v>90</v>
+          </cell>
+          <cell r="N32">
+            <v>0</v>
+          </cell>
+          <cell r="O32">
+            <v>-1</v>
+          </cell>
+          <cell r="P32">
+            <v>-1</v>
+          </cell>
+          <cell r="Q32">
+            <v>2</v>
+          </cell>
+          <cell r="R32">
+            <v>35</v>
+          </cell>
+          <cell r="S32">
+            <v>35</v>
+          </cell>
+          <cell r="T32">
+            <v>35</v>
+          </cell>
+          <cell r="U32">
+            <v>35</v>
+          </cell>
+          <cell r="V32">
+            <v>35</v>
+          </cell>
+          <cell r="W32">
+            <v>74</v>
+          </cell>
+          <cell r="X32">
+            <v>0</v>
+          </cell>
+          <cell r="Y32">
+            <v>56</v>
+          </cell>
+          <cell r="Z32">
+            <v>0</v>
+          </cell>
+          <cell r="AA32">
+            <v>21</v>
+          </cell>
+          <cell r="AB32">
+            <v>8</v>
+          </cell>
+          <cell r="AC32">
+            <v>6</v>
+          </cell>
+          <cell r="AD32">
+            <v>0</v>
+          </cell>
+          <cell r="AE32">
+            <v>12</v>
+          </cell>
+          <cell r="AF32">
+            <v>30</v>
+          </cell>
+          <cell r="AG32">
+            <v>50</v>
+          </cell>
+          <cell r="AH32">
+            <v>0</v>
+          </cell>
+          <cell r="AI32">
+            <v>0</v>
+          </cell>
+          <cell r="AJ32">
+            <v>0</v>
+          </cell>
+          <cell r="AK32">
+            <v>60</v>
+          </cell>
+          <cell r="AL32">
+            <v>-1</v>
+          </cell>
+          <cell r="AM32">
+            <v>0</v>
+          </cell>
+          <cell r="AN32" t="str">
+            <v>0,0|120,800</v>
+          </cell>
+          <cell r="AO32" t="str">
+            <v>-1</v>
+          </cell>
+          <cell r="AP32">
+            <v>128</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>140</v>
+          </cell>
+          <cell r="B33">
+            <v>141</v>
+          </cell>
+          <cell r="C33">
+            <v>6</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33">
+            <v>10</v>
+          </cell>
+          <cell r="H33">
+            <v>15</v>
+          </cell>
+          <cell r="I33">
+            <v>15</v>
+          </cell>
+          <cell r="J33">
+            <v>15</v>
+          </cell>
+          <cell r="K33">
+            <v>0</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+          <cell r="M33">
+            <v>90</v>
+          </cell>
+          <cell r="N33">
+            <v>0</v>
+          </cell>
+          <cell r="O33">
+            <v>-1</v>
+          </cell>
+          <cell r="P33">
+            <v>-1</v>
+          </cell>
+          <cell r="Q33">
+            <v>1</v>
+          </cell>
+          <cell r="R33">
+            <v>150</v>
+          </cell>
+          <cell r="S33">
+            <v>10</v>
+          </cell>
+          <cell r="T33">
+            <v>11</v>
+          </cell>
+          <cell r="U33">
+            <v>30</v>
+          </cell>
+          <cell r="V33">
+            <v>30</v>
+          </cell>
+          <cell r="W33">
+            <v>0</v>
+          </cell>
+          <cell r="X33">
+            <v>0</v>
+          </cell>
+          <cell r="Y33">
+            <v>0</v>
+          </cell>
+          <cell r="Z33">
+            <v>0</v>
+          </cell>
+          <cell r="AA33">
+            <v>10</v>
+          </cell>
+          <cell r="AB33">
+            <v>10</v>
+          </cell>
+          <cell r="AC33">
+            <v>10</v>
+          </cell>
+          <cell r="AD33">
+            <v>10</v>
+          </cell>
+          <cell r="AE33">
+            <v>10</v>
+          </cell>
+          <cell r="AF33">
+            <v>20</v>
+          </cell>
+          <cell r="AG33">
+            <v>50</v>
+          </cell>
+          <cell r="AH33">
+            <v>0</v>
+          </cell>
+          <cell r="AI33">
+            <v>0</v>
+          </cell>
+          <cell r="AJ33">
+            <v>0</v>
+          </cell>
+          <cell r="AK33">
+            <v>60</v>
+          </cell>
+          <cell r="AL33">
+            <v>-1</v>
+          </cell>
+          <cell r="AM33">
+            <v>0</v>
+          </cell>
+          <cell r="AN33" t="str">
+            <v>140,600</v>
+          </cell>
+          <cell r="AO33" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>141</v>
+          </cell>
+          <cell r="B34">
+            <v>142</v>
+          </cell>
+          <cell r="C34">
+            <v>6</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>10</v>
+          </cell>
+          <cell r="H34">
+            <v>15</v>
+          </cell>
+          <cell r="I34">
+            <v>15</v>
+          </cell>
+          <cell r="J34">
+            <v>15</v>
+          </cell>
+          <cell r="K34">
+            <v>0</v>
+          </cell>
+          <cell r="L34">
+            <v>0</v>
+          </cell>
+          <cell r="M34">
+            <v>90</v>
+          </cell>
+          <cell r="N34">
+            <v>0</v>
+          </cell>
+          <cell r="O34">
+            <v>-1</v>
+          </cell>
+          <cell r="P34">
+            <v>-1</v>
+          </cell>
+          <cell r="Q34">
+            <v>1</v>
+          </cell>
+          <cell r="R34">
+            <v>150</v>
+          </cell>
+          <cell r="S34">
+            <v>10</v>
+          </cell>
+          <cell r="T34">
+            <v>7</v>
+          </cell>
+          <cell r="U34">
+            <v>30</v>
+          </cell>
+          <cell r="V34">
+            <v>30</v>
+          </cell>
+          <cell r="W34">
+            <v>0</v>
+          </cell>
+          <cell r="X34">
+            <v>0</v>
+          </cell>
+          <cell r="Y34">
+            <v>0</v>
+          </cell>
+          <cell r="Z34">
+            <v>0</v>
+          </cell>
+          <cell r="AA34">
+            <v>10</v>
+          </cell>
+          <cell r="AB34">
+            <v>10</v>
+          </cell>
+          <cell r="AC34">
+            <v>10</v>
+          </cell>
+          <cell r="AD34">
+            <v>10</v>
+          </cell>
+          <cell r="AE34">
+            <v>10</v>
+          </cell>
+          <cell r="AF34">
+            <v>20</v>
+          </cell>
+          <cell r="AG34">
+            <v>50</v>
+          </cell>
+          <cell r="AH34">
+            <v>0</v>
+          </cell>
+          <cell r="AI34">
+            <v>0</v>
+          </cell>
+          <cell r="AJ34">
+            <v>0</v>
+          </cell>
+          <cell r="AK34">
+            <v>60</v>
+          </cell>
+          <cell r="AL34">
+            <v>-1</v>
+          </cell>
+          <cell r="AM34">
+            <v>0</v>
+          </cell>
+          <cell r="AN34" t="str">
+            <v>140,700</v>
+          </cell>
+          <cell r="AO34">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>142</v>
+          </cell>
+          <cell r="B35">
+            <v>143</v>
+          </cell>
+          <cell r="C35">
+            <v>6</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>10</v>
+          </cell>
+          <cell r="H35">
+            <v>15</v>
+          </cell>
+          <cell r="I35">
+            <v>15</v>
+          </cell>
+          <cell r="J35">
+            <v>15</v>
+          </cell>
+          <cell r="K35">
+            <v>0</v>
+          </cell>
+          <cell r="L35">
+            <v>0</v>
+          </cell>
+          <cell r="M35">
+            <v>90</v>
+          </cell>
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>-1</v>
+          </cell>
+          <cell r="P35">
+            <v>-1</v>
+          </cell>
+          <cell r="Q35">
+            <v>1</v>
+          </cell>
+          <cell r="R35">
+            <v>150</v>
+          </cell>
+          <cell r="S35">
+            <v>10</v>
+          </cell>
+          <cell r="T35">
+            <v>7</v>
+          </cell>
+          <cell r="U35">
+            <v>30</v>
+          </cell>
+          <cell r="V35">
+            <v>30</v>
+          </cell>
+          <cell r="W35">
+            <v>0</v>
+          </cell>
+          <cell r="X35">
+            <v>0</v>
+          </cell>
+          <cell r="Y35">
+            <v>0</v>
+          </cell>
+          <cell r="Z35">
+            <v>0</v>
+          </cell>
+          <cell r="AA35">
+            <v>10</v>
+          </cell>
+          <cell r="AB35">
+            <v>10</v>
+          </cell>
+          <cell r="AC35">
+            <v>10</v>
+          </cell>
+          <cell r="AD35">
+            <v>10</v>
+          </cell>
+          <cell r="AE35">
+            <v>10</v>
+          </cell>
+          <cell r="AF35">
+            <v>20</v>
+          </cell>
+          <cell r="AG35">
+            <v>50</v>
+          </cell>
+          <cell r="AH35">
+            <v>0</v>
+          </cell>
+          <cell r="AI35">
+            <v>0</v>
+          </cell>
+          <cell r="AJ35">
+            <v>0</v>
+          </cell>
+          <cell r="AK35">
+            <v>60</v>
+          </cell>
+          <cell r="AL35">
+            <v>-1</v>
+          </cell>
+          <cell r="AM35">
+            <v>0</v>
+          </cell>
+          <cell r="AN35" t="str">
+            <v>140,800</v>
+          </cell>
+          <cell r="AO35">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>143</v>
+          </cell>
+          <cell r="B36">
+            <v>144</v>
+          </cell>
+          <cell r="C36">
+            <v>6</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+          <cell r="G36">
+            <v>10</v>
+          </cell>
+          <cell r="H36">
+            <v>15</v>
+          </cell>
+          <cell r="I36">
+            <v>15</v>
+          </cell>
+          <cell r="J36">
+            <v>15</v>
+          </cell>
+          <cell r="K36">
+            <v>0</v>
+          </cell>
+          <cell r="L36">
+            <v>0</v>
+          </cell>
+          <cell r="M36">
+            <v>90</v>
+          </cell>
+          <cell r="N36">
+            <v>0</v>
+          </cell>
+          <cell r="O36">
+            <v>-1</v>
+          </cell>
+          <cell r="P36">
+            <v>-1</v>
+          </cell>
+          <cell r="Q36">
+            <v>1</v>
+          </cell>
+          <cell r="R36">
+            <v>150</v>
+          </cell>
+          <cell r="S36">
+            <v>10</v>
+          </cell>
+          <cell r="T36">
+            <v>7</v>
+          </cell>
+          <cell r="U36">
+            <v>30</v>
+          </cell>
+          <cell r="V36">
+            <v>30</v>
+          </cell>
+          <cell r="W36">
+            <v>0</v>
+          </cell>
+          <cell r="X36">
+            <v>0</v>
+          </cell>
+          <cell r="Y36">
+            <v>0</v>
+          </cell>
+          <cell r="Z36">
+            <v>0</v>
+          </cell>
+          <cell r="AA36">
+            <v>10</v>
+          </cell>
+          <cell r="AB36">
+            <v>10</v>
+          </cell>
+          <cell r="AC36">
+            <v>10</v>
+          </cell>
+          <cell r="AD36">
+            <v>10</v>
+          </cell>
+          <cell r="AE36">
+            <v>10</v>
+          </cell>
+          <cell r="AF36">
+            <v>20</v>
+          </cell>
+          <cell r="AG36">
+            <v>50</v>
+          </cell>
+          <cell r="AH36">
+            <v>0</v>
+          </cell>
+          <cell r="AI36">
+            <v>0</v>
+          </cell>
+          <cell r="AJ36">
+            <v>0</v>
+          </cell>
+          <cell r="AK36">
+            <v>60</v>
+          </cell>
+          <cell r="AL36">
+            <v>-1</v>
+          </cell>
+          <cell r="AM36">
+            <v>0</v>
+          </cell>
+          <cell r="AN36" t="str">
+            <v>140,800</v>
+          </cell>
+          <cell r="AO36">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>144</v>
+          </cell>
+          <cell r="B37">
+            <v>145</v>
+          </cell>
+          <cell r="C37">
+            <v>6</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>10</v>
+          </cell>
+          <cell r="H37">
+            <v>15</v>
+          </cell>
+          <cell r="I37">
+            <v>15</v>
+          </cell>
+          <cell r="J37">
+            <v>15</v>
+          </cell>
+          <cell r="K37">
+            <v>0</v>
+          </cell>
+          <cell r="L37">
+            <v>0</v>
+          </cell>
+          <cell r="M37">
+            <v>90</v>
+          </cell>
+          <cell r="N37">
+            <v>0</v>
+          </cell>
+          <cell r="O37">
+            <v>-1</v>
+          </cell>
+          <cell r="P37">
+            <v>-1</v>
+          </cell>
+          <cell r="Q37">
+            <v>1</v>
+          </cell>
+          <cell r="R37">
+            <v>150</v>
+          </cell>
+          <cell r="S37">
+            <v>10</v>
+          </cell>
+          <cell r="T37">
+            <v>7</v>
+          </cell>
+          <cell r="U37">
+            <v>30</v>
+          </cell>
+          <cell r="V37">
+            <v>30</v>
+          </cell>
+          <cell r="W37">
+            <v>0</v>
+          </cell>
+          <cell r="X37">
+            <v>0</v>
+          </cell>
+          <cell r="Y37">
+            <v>0</v>
+          </cell>
+          <cell r="Z37">
+            <v>0</v>
+          </cell>
+          <cell r="AA37">
+            <v>10</v>
+          </cell>
+          <cell r="AB37">
+            <v>10</v>
+          </cell>
+          <cell r="AC37">
+            <v>10</v>
+          </cell>
+          <cell r="AD37">
+            <v>10</v>
+          </cell>
+          <cell r="AE37">
+            <v>10</v>
+          </cell>
+          <cell r="AF37">
+            <v>20</v>
+          </cell>
+          <cell r="AG37">
+            <v>50</v>
+          </cell>
+          <cell r="AH37">
+            <v>0</v>
+          </cell>
+          <cell r="AI37">
+            <v>0</v>
+          </cell>
+          <cell r="AJ37">
+            <v>0</v>
+          </cell>
+          <cell r="AK37">
+            <v>60</v>
+          </cell>
+          <cell r="AL37">
+            <v>-1</v>
+          </cell>
+          <cell r="AM37">
+            <v>0</v>
+          </cell>
+          <cell r="AN37" t="str">
+            <v>140,700</v>
+          </cell>
+          <cell r="AO37">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>145</v>
+          </cell>
+          <cell r="B38">
+            <v>146</v>
+          </cell>
+          <cell r="C38">
+            <v>6</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38">
+            <v>10</v>
+          </cell>
+          <cell r="H38">
+            <v>15</v>
+          </cell>
+          <cell r="I38">
+            <v>15</v>
+          </cell>
+          <cell r="J38">
+            <v>15</v>
+          </cell>
+          <cell r="K38">
+            <v>0</v>
+          </cell>
+          <cell r="L38">
+            <v>0</v>
+          </cell>
+          <cell r="M38">
+            <v>90</v>
+          </cell>
+          <cell r="N38">
+            <v>0</v>
+          </cell>
+          <cell r="O38">
+            <v>-1</v>
+          </cell>
+          <cell r="P38">
+            <v>-1</v>
+          </cell>
+          <cell r="Q38">
+            <v>1</v>
+          </cell>
+          <cell r="R38">
+            <v>150</v>
+          </cell>
+          <cell r="S38">
+            <v>10</v>
+          </cell>
+          <cell r="T38">
+            <v>7</v>
+          </cell>
+          <cell r="U38">
+            <v>30</v>
+          </cell>
+          <cell r="V38">
+            <v>30</v>
+          </cell>
+          <cell r="W38">
+            <v>0</v>
+          </cell>
+          <cell r="X38">
+            <v>0</v>
+          </cell>
+          <cell r="Y38">
+            <v>0</v>
+          </cell>
+          <cell r="Z38">
+            <v>0</v>
+          </cell>
+          <cell r="AA38">
+            <v>10</v>
+          </cell>
+          <cell r="AB38">
+            <v>10</v>
+          </cell>
+          <cell r="AC38">
+            <v>10</v>
+          </cell>
+          <cell r="AD38">
+            <v>10</v>
+          </cell>
+          <cell r="AE38">
+            <v>10</v>
+          </cell>
+          <cell r="AF38">
+            <v>20</v>
+          </cell>
+          <cell r="AG38">
+            <v>50</v>
+          </cell>
+          <cell r="AH38">
+            <v>0</v>
+          </cell>
+          <cell r="AI38">
+            <v>0</v>
+          </cell>
+          <cell r="AJ38">
+            <v>0</v>
+          </cell>
+          <cell r="AK38">
+            <v>60</v>
+          </cell>
+          <cell r="AL38">
+            <v>-1</v>
+          </cell>
+          <cell r="AM38">
+            <v>0</v>
+          </cell>
+          <cell r="AN38" t="str">
+            <v>140,600</v>
+          </cell>
+          <cell r="AO38">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>146</v>
+          </cell>
+          <cell r="B39">
+            <v>147</v>
+          </cell>
+          <cell r="C39">
+            <v>6</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39">
+            <v>10</v>
+          </cell>
+          <cell r="H39">
+            <v>15</v>
+          </cell>
+          <cell r="I39">
+            <v>15</v>
+          </cell>
+          <cell r="J39">
+            <v>15</v>
+          </cell>
+          <cell r="K39">
+            <v>0</v>
+          </cell>
+          <cell r="L39">
+            <v>0</v>
+          </cell>
+          <cell r="M39">
+            <v>90</v>
+          </cell>
+          <cell r="N39">
+            <v>0</v>
+          </cell>
+          <cell r="O39">
+            <v>-1</v>
+          </cell>
+          <cell r="P39">
+            <v>-1</v>
+          </cell>
+          <cell r="Q39">
+            <v>1</v>
+          </cell>
+          <cell r="R39">
+            <v>150</v>
+          </cell>
+          <cell r="S39">
+            <v>10</v>
+          </cell>
+          <cell r="T39">
+            <v>7</v>
+          </cell>
+          <cell r="U39">
+            <v>30</v>
+          </cell>
+          <cell r="V39">
+            <v>30</v>
+          </cell>
+          <cell r="W39">
+            <v>0</v>
+          </cell>
+          <cell r="X39">
+            <v>0</v>
+          </cell>
+          <cell r="Y39">
+            <v>0</v>
+          </cell>
+          <cell r="Z39">
+            <v>0</v>
+          </cell>
+          <cell r="AA39">
+            <v>10</v>
+          </cell>
+          <cell r="AB39">
+            <v>10</v>
+          </cell>
+          <cell r="AC39">
+            <v>10</v>
+          </cell>
+          <cell r="AD39">
+            <v>10</v>
+          </cell>
+          <cell r="AE39">
+            <v>10</v>
+          </cell>
+          <cell r="AF39">
+            <v>20</v>
+          </cell>
+          <cell r="AG39">
+            <v>50</v>
+          </cell>
+          <cell r="AH39">
+            <v>0</v>
+          </cell>
+          <cell r="AI39">
+            <v>0</v>
+          </cell>
+          <cell r="AJ39">
+            <v>0</v>
+          </cell>
+          <cell r="AK39">
+            <v>60</v>
+          </cell>
+          <cell r="AL39">
+            <v>-1</v>
+          </cell>
+          <cell r="AM39">
+            <v>0</v>
+          </cell>
+          <cell r="AN39" t="str">
+            <v>140,600</v>
+          </cell>
+          <cell r="AO39">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>147</v>
+          </cell>
+          <cell r="B40">
+            <v>148</v>
+          </cell>
+          <cell r="C40">
+            <v>6</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40">
+            <v>10</v>
+          </cell>
+          <cell r="H40">
+            <v>15</v>
+          </cell>
+          <cell r="I40">
+            <v>15</v>
+          </cell>
+          <cell r="J40">
+            <v>15</v>
+          </cell>
+          <cell r="K40">
+            <v>0</v>
+          </cell>
+          <cell r="L40">
+            <v>0</v>
+          </cell>
+          <cell r="M40">
+            <v>90</v>
+          </cell>
+          <cell r="N40">
+            <v>0</v>
+          </cell>
+          <cell r="O40">
+            <v>-1</v>
+          </cell>
+          <cell r="P40">
+            <v>-1</v>
+          </cell>
+          <cell r="Q40">
+            <v>1</v>
+          </cell>
+          <cell r="R40">
+            <v>150</v>
+          </cell>
+          <cell r="S40">
+            <v>10</v>
+          </cell>
+          <cell r="T40">
+            <v>7</v>
+          </cell>
+          <cell r="U40">
+            <v>30</v>
+          </cell>
+          <cell r="V40">
+            <v>30</v>
+          </cell>
+          <cell r="W40">
+            <v>0</v>
+          </cell>
+          <cell r="X40">
+            <v>0</v>
+          </cell>
+          <cell r="Y40">
+            <v>0</v>
+          </cell>
+          <cell r="Z40">
+            <v>0</v>
+          </cell>
+          <cell r="AA40">
+            <v>10</v>
+          </cell>
+          <cell r="AB40">
+            <v>10</v>
+          </cell>
+          <cell r="AC40">
+            <v>10</v>
+          </cell>
+          <cell r="AD40">
+            <v>10</v>
+          </cell>
+          <cell r="AE40">
+            <v>10</v>
+          </cell>
+          <cell r="AF40">
+            <v>20</v>
+          </cell>
+          <cell r="AG40">
+            <v>50</v>
+          </cell>
+          <cell r="AH40">
+            <v>0</v>
+          </cell>
+          <cell r="AI40">
+            <v>0</v>
+          </cell>
+          <cell r="AJ40">
+            <v>0</v>
+          </cell>
+          <cell r="AK40">
+            <v>60</v>
+          </cell>
+          <cell r="AL40">
+            <v>-1</v>
+          </cell>
+          <cell r="AM40">
+            <v>0</v>
+          </cell>
+          <cell r="AN40" t="str">
+            <v>140,600</v>
+          </cell>
+          <cell r="AO40">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>148</v>
+          </cell>
+          <cell r="B41">
+            <v>149</v>
+          </cell>
+          <cell r="C41">
+            <v>6</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+          <cell r="G41">
+            <v>10</v>
+          </cell>
+          <cell r="H41">
+            <v>15</v>
+          </cell>
+          <cell r="I41">
+            <v>15</v>
+          </cell>
+          <cell r="J41">
+            <v>15</v>
+          </cell>
+          <cell r="K41">
+            <v>0</v>
+          </cell>
+          <cell r="L41">
+            <v>0</v>
+          </cell>
+          <cell r="M41">
+            <v>90</v>
+          </cell>
+          <cell r="N41">
+            <v>0</v>
+          </cell>
+          <cell r="O41">
+            <v>-1</v>
+          </cell>
+          <cell r="P41">
+            <v>-1</v>
+          </cell>
+          <cell r="Q41">
+            <v>1</v>
+          </cell>
+          <cell r="R41">
+            <v>150</v>
+          </cell>
+          <cell r="S41">
+            <v>10</v>
+          </cell>
+          <cell r="T41">
+            <v>7</v>
+          </cell>
+          <cell r="U41">
+            <v>30</v>
+          </cell>
+          <cell r="V41">
+            <v>30</v>
+          </cell>
+          <cell r="W41">
+            <v>0</v>
+          </cell>
+          <cell r="X41">
+            <v>0</v>
+          </cell>
+          <cell r="Y41">
+            <v>0</v>
+          </cell>
+          <cell r="Z41">
+            <v>0</v>
+          </cell>
+          <cell r="AA41">
+            <v>10</v>
+          </cell>
+          <cell r="AB41">
+            <v>10</v>
+          </cell>
+          <cell r="AC41">
+            <v>10</v>
+          </cell>
+          <cell r="AD41">
+            <v>10</v>
+          </cell>
+          <cell r="AE41">
+            <v>10</v>
+          </cell>
+          <cell r="AF41">
+            <v>20</v>
+          </cell>
+          <cell r="AG41">
+            <v>50</v>
+          </cell>
+          <cell r="AH41">
+            <v>0</v>
+          </cell>
+          <cell r="AI41">
+            <v>0</v>
+          </cell>
+          <cell r="AJ41">
+            <v>0</v>
+          </cell>
+          <cell r="AK41">
+            <v>60</v>
+          </cell>
+          <cell r="AL41">
+            <v>-1</v>
+          </cell>
+          <cell r="AM41">
+            <v>0</v>
+          </cell>
+          <cell r="AN41" t="str">
+            <v>140,800</v>
+          </cell>
+          <cell r="AO41">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>149</v>
+          </cell>
+          <cell r="B42">
+            <v>1410</v>
+          </cell>
+          <cell r="C42">
+            <v>6</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>野狼</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42">
+            <v>10</v>
+          </cell>
+          <cell r="H42">
+            <v>15</v>
+          </cell>
+          <cell r="I42">
+            <v>15</v>
+          </cell>
+          <cell r="J42">
+            <v>15</v>
+          </cell>
+          <cell r="K42">
+            <v>0</v>
+          </cell>
+          <cell r="L42">
+            <v>0</v>
+          </cell>
+          <cell r="M42">
+            <v>90</v>
+          </cell>
+          <cell r="N42">
+            <v>0</v>
+          </cell>
+          <cell r="O42">
+            <v>-1</v>
+          </cell>
+          <cell r="P42">
+            <v>-1</v>
+          </cell>
+          <cell r="Q42">
+            <v>1</v>
+          </cell>
+          <cell r="R42">
+            <v>150</v>
+          </cell>
+          <cell r="S42">
+            <v>10</v>
+          </cell>
+          <cell r="T42">
+            <v>7</v>
+          </cell>
+          <cell r="U42">
+            <v>30</v>
+          </cell>
+          <cell r="V42">
+            <v>30</v>
+          </cell>
+          <cell r="W42">
+            <v>0</v>
+          </cell>
+          <cell r="X42">
+            <v>0</v>
+          </cell>
+          <cell r="Y42">
+            <v>0</v>
+          </cell>
+          <cell r="Z42">
+            <v>0</v>
+          </cell>
+          <cell r="AA42">
+            <v>10</v>
+          </cell>
+          <cell r="AB42">
+            <v>10</v>
+          </cell>
+          <cell r="AC42">
+            <v>10</v>
+          </cell>
+          <cell r="AD42">
+            <v>10</v>
+          </cell>
+          <cell r="AE42">
+            <v>10</v>
+          </cell>
+          <cell r="AF42">
+            <v>20</v>
+          </cell>
+          <cell r="AG42">
+            <v>50</v>
+          </cell>
+          <cell r="AH42">
+            <v>0</v>
+          </cell>
+          <cell r="AI42">
+            <v>0</v>
+          </cell>
+          <cell r="AJ42">
+            <v>0</v>
+          </cell>
+          <cell r="AK42">
+            <v>60</v>
+          </cell>
+          <cell r="AL42">
+            <v>-1</v>
+          </cell>
+          <cell r="AM42">
+            <v>0</v>
+          </cell>
+          <cell r="AN42" t="str">
+            <v>140,700</v>
+          </cell>
+          <cell r="AO42">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>160</v>
+          </cell>
+          <cell r="B43">
+            <v>163</v>
+          </cell>
+          <cell r="C43">
+            <v>6</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43">
+            <v>10</v>
+          </cell>
+          <cell r="H43">
+            <v>2250</v>
+          </cell>
+          <cell r="I43">
+            <v>200</v>
+          </cell>
+          <cell r="J43">
+            <v>200</v>
+          </cell>
+          <cell r="K43">
+            <v>0</v>
+          </cell>
+          <cell r="L43">
+            <v>0</v>
+          </cell>
+          <cell r="M43">
+            <v>90</v>
+          </cell>
+          <cell r="N43">
+            <v>0</v>
+          </cell>
+          <cell r="O43">
+            <v>-1</v>
+          </cell>
+          <cell r="P43">
+            <v>-1</v>
+          </cell>
+          <cell r="Q43">
+            <v>1</v>
+          </cell>
+          <cell r="R43">
+            <v>150</v>
+          </cell>
+          <cell r="S43">
+            <v>10</v>
+          </cell>
+          <cell r="T43">
+            <v>30</v>
+          </cell>
+          <cell r="U43">
+            <v>30</v>
+          </cell>
+          <cell r="V43">
+            <v>90</v>
+          </cell>
+          <cell r="W43">
+            <v>0</v>
+          </cell>
+          <cell r="X43">
+            <v>0</v>
+          </cell>
+          <cell r="Y43">
+            <v>0</v>
+          </cell>
+          <cell r="Z43">
+            <v>0</v>
+          </cell>
+          <cell r="AA43">
+            <v>10</v>
+          </cell>
+          <cell r="AB43">
+            <v>10</v>
+          </cell>
+          <cell r="AC43">
+            <v>10</v>
+          </cell>
+          <cell r="AD43">
+            <v>10</v>
+          </cell>
+          <cell r="AE43">
+            <v>10</v>
+          </cell>
+          <cell r="AF43">
+            <v>50</v>
+          </cell>
+          <cell r="AG43">
+            <v>50</v>
+          </cell>
+          <cell r="AH43">
+            <v>0</v>
+          </cell>
+          <cell r="AI43">
+            <v>0</v>
+          </cell>
+          <cell r="AJ43">
+            <v>0</v>
+          </cell>
+          <cell r="AK43">
+            <v>60</v>
+          </cell>
+          <cell r="AL43">
+            <v>-1</v>
+          </cell>
+          <cell r="AM43">
+            <v>0</v>
+          </cell>
+          <cell r="AN43" t="str">
+            <v>160,500</v>
+          </cell>
+          <cell r="AO43">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>161</v>
+          </cell>
+          <cell r="B44">
+            <v>164</v>
+          </cell>
+          <cell r="C44">
+            <v>6</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="F44">
+            <v>0</v>
+          </cell>
+          <cell r="G44">
+            <v>10</v>
+          </cell>
+          <cell r="H44">
+            <v>2250</v>
+          </cell>
+          <cell r="I44">
+            <v>200</v>
+          </cell>
+          <cell r="J44">
+            <v>200</v>
+          </cell>
+          <cell r="K44">
+            <v>0</v>
+          </cell>
+          <cell r="L44">
+            <v>0</v>
+          </cell>
+          <cell r="M44">
+            <v>90</v>
+          </cell>
+          <cell r="N44">
+            <v>0</v>
+          </cell>
+          <cell r="O44">
+            <v>-1</v>
+          </cell>
+          <cell r="P44">
+            <v>-1</v>
+          </cell>
+          <cell r="Q44">
+            <v>1</v>
+          </cell>
+          <cell r="R44">
+            <v>150</v>
+          </cell>
+          <cell r="S44">
+            <v>10</v>
+          </cell>
+          <cell r="T44">
+            <v>30</v>
+          </cell>
+          <cell r="U44">
+            <v>30</v>
+          </cell>
+          <cell r="V44">
+            <v>90</v>
+          </cell>
+          <cell r="W44">
+            <v>0</v>
+          </cell>
+          <cell r="X44">
+            <v>0</v>
+          </cell>
+          <cell r="Y44">
+            <v>0</v>
+          </cell>
+          <cell r="Z44">
+            <v>0</v>
+          </cell>
+          <cell r="AA44">
+            <v>10</v>
+          </cell>
+          <cell r="AB44">
+            <v>10</v>
+          </cell>
+          <cell r="AC44">
+            <v>10</v>
+          </cell>
+          <cell r="AD44">
+            <v>10</v>
+          </cell>
+          <cell r="AE44">
+            <v>10</v>
+          </cell>
+          <cell r="AF44">
+            <v>50</v>
+          </cell>
+          <cell r="AG44">
+            <v>50</v>
+          </cell>
+          <cell r="AH44">
+            <v>0</v>
+          </cell>
+          <cell r="AI44">
+            <v>0</v>
+          </cell>
+          <cell r="AJ44">
+            <v>0</v>
+          </cell>
+          <cell r="AK44">
+            <v>60</v>
+          </cell>
+          <cell r="AL44">
+            <v>-1</v>
+          </cell>
+          <cell r="AM44">
+            <v>0</v>
+          </cell>
+          <cell r="AN44" t="str">
+            <v>160,600</v>
+          </cell>
+          <cell r="AO44">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>162</v>
+          </cell>
+          <cell r="B45">
+            <v>165</v>
+          </cell>
+          <cell r="C45">
+            <v>6</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+          <cell r="G45">
+            <v>10</v>
+          </cell>
+          <cell r="H45">
+            <v>2250</v>
+          </cell>
+          <cell r="I45">
+            <v>200</v>
+          </cell>
+          <cell r="J45">
+            <v>200</v>
+          </cell>
+          <cell r="K45">
+            <v>0</v>
+          </cell>
+          <cell r="L45">
+            <v>0</v>
+          </cell>
+          <cell r="M45">
+            <v>90</v>
+          </cell>
+          <cell r="N45">
+            <v>0</v>
+          </cell>
+          <cell r="O45">
+            <v>-1</v>
+          </cell>
+          <cell r="P45">
+            <v>-1</v>
+          </cell>
+          <cell r="Q45">
+            <v>1</v>
+          </cell>
+          <cell r="R45">
+            <v>150</v>
+          </cell>
+          <cell r="S45">
+            <v>10</v>
+          </cell>
+          <cell r="T45">
+            <v>30</v>
+          </cell>
+          <cell r="U45">
+            <v>30</v>
+          </cell>
+          <cell r="V45">
+            <v>90</v>
+          </cell>
+          <cell r="W45">
+            <v>0</v>
+          </cell>
+          <cell r="X45">
+            <v>0</v>
+          </cell>
+          <cell r="Y45">
+            <v>0</v>
+          </cell>
+          <cell r="Z45">
+            <v>0</v>
+          </cell>
+          <cell r="AA45">
+            <v>10</v>
+          </cell>
+          <cell r="AB45">
+            <v>10</v>
+          </cell>
+          <cell r="AC45">
+            <v>10</v>
+          </cell>
+          <cell r="AD45">
+            <v>10</v>
+          </cell>
+          <cell r="AE45">
+            <v>10</v>
+          </cell>
+          <cell r="AF45">
+            <v>50</v>
+          </cell>
+          <cell r="AG45">
+            <v>50</v>
+          </cell>
+          <cell r="AH45">
+            <v>0</v>
+          </cell>
+          <cell r="AI45">
+            <v>0</v>
+          </cell>
+          <cell r="AJ45">
+            <v>0</v>
+          </cell>
+          <cell r="AK45">
+            <v>60</v>
+          </cell>
+          <cell r="AL45">
+            <v>-1</v>
+          </cell>
+          <cell r="AM45">
+            <v>0</v>
+          </cell>
+          <cell r="AN45" t="str">
+            <v>160,800</v>
+          </cell>
+          <cell r="AO45">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>163</v>
+          </cell>
+          <cell r="B46">
+            <v>166</v>
+          </cell>
+          <cell r="C46">
+            <v>6</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+          <cell r="G46">
+            <v>10</v>
+          </cell>
+          <cell r="H46">
+            <v>2250</v>
+          </cell>
+          <cell r="I46">
+            <v>200</v>
+          </cell>
+          <cell r="J46">
+            <v>200</v>
+          </cell>
+          <cell r="K46">
+            <v>0</v>
+          </cell>
+          <cell r="L46">
+            <v>0</v>
+          </cell>
+          <cell r="M46">
+            <v>90</v>
+          </cell>
+          <cell r="N46">
+            <v>0</v>
+          </cell>
+          <cell r="O46">
+            <v>-1</v>
+          </cell>
+          <cell r="P46">
+            <v>-1</v>
+          </cell>
+          <cell r="Q46">
+            <v>1</v>
+          </cell>
+          <cell r="R46">
+            <v>150</v>
+          </cell>
+          <cell r="S46">
+            <v>10</v>
+          </cell>
+          <cell r="T46">
+            <v>30</v>
+          </cell>
+          <cell r="U46">
+            <v>30</v>
+          </cell>
+          <cell r="V46">
+            <v>90</v>
+          </cell>
+          <cell r="W46">
+            <v>0</v>
+          </cell>
+          <cell r="X46">
+            <v>0</v>
+          </cell>
+          <cell r="Y46">
+            <v>0</v>
+          </cell>
+          <cell r="Z46">
+            <v>0</v>
+          </cell>
+          <cell r="AA46">
+            <v>10</v>
+          </cell>
+          <cell r="AB46">
+            <v>10</v>
+          </cell>
+          <cell r="AC46">
+            <v>10</v>
+          </cell>
+          <cell r="AD46">
+            <v>10</v>
+          </cell>
+          <cell r="AE46">
+            <v>10</v>
+          </cell>
+          <cell r="AF46">
+            <v>50</v>
+          </cell>
+          <cell r="AG46">
+            <v>50</v>
+          </cell>
+          <cell r="AH46">
+            <v>0</v>
+          </cell>
+          <cell r="AI46">
+            <v>0</v>
+          </cell>
+          <cell r="AJ46">
+            <v>0</v>
+          </cell>
+          <cell r="AK46">
+            <v>60</v>
+          </cell>
+          <cell r="AL46">
+            <v>-1</v>
+          </cell>
+          <cell r="AM46">
+            <v>0</v>
+          </cell>
+          <cell r="AN46" t="str">
+            <v>160,700</v>
+          </cell>
+          <cell r="AO46">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>164</v>
+          </cell>
+          <cell r="B47">
+            <v>167</v>
+          </cell>
+          <cell r="C47">
+            <v>6</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>黑熊</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47">
+            <v>10</v>
+          </cell>
+          <cell r="H47">
+            <v>2250</v>
+          </cell>
+          <cell r="I47">
+            <v>200</v>
+          </cell>
+          <cell r="J47">
+            <v>200</v>
+          </cell>
+          <cell r="K47">
+            <v>0</v>
+          </cell>
+          <cell r="L47">
+            <v>0</v>
+          </cell>
+          <cell r="M47">
+            <v>90</v>
+          </cell>
+          <cell r="N47">
+            <v>0</v>
+          </cell>
+          <cell r="O47">
+            <v>-1</v>
+          </cell>
+          <cell r="P47">
+            <v>-1</v>
+          </cell>
+          <cell r="Q47">
+            <v>1</v>
+          </cell>
+          <cell r="R47">
+            <v>150</v>
+          </cell>
+          <cell r="S47">
+            <v>10</v>
+          </cell>
+          <cell r="T47">
+            <v>30</v>
+          </cell>
+          <cell r="U47">
+            <v>30</v>
+          </cell>
+          <cell r="V47">
+            <v>90</v>
+          </cell>
+          <cell r="W47">
+            <v>0</v>
+          </cell>
+          <cell r="X47">
+            <v>0</v>
+          </cell>
+          <cell r="Y47">
+            <v>0</v>
+          </cell>
+          <cell r="Z47">
+            <v>0</v>
+          </cell>
+          <cell r="AA47">
+            <v>10</v>
+          </cell>
+          <cell r="AB47">
+            <v>10</v>
+          </cell>
+          <cell r="AC47">
+            <v>10</v>
+          </cell>
+          <cell r="AD47">
+            <v>10</v>
+          </cell>
+          <cell r="AE47">
+            <v>10</v>
+          </cell>
+          <cell r="AF47">
+            <v>50</v>
+          </cell>
+          <cell r="AG47">
+            <v>50</v>
+          </cell>
+          <cell r="AH47">
+            <v>0</v>
+          </cell>
+          <cell r="AI47">
+            <v>0</v>
+          </cell>
+          <cell r="AJ47">
+            <v>0</v>
+          </cell>
+          <cell r="AK47">
+            <v>60</v>
+          </cell>
+          <cell r="AL47">
+            <v>-1</v>
+          </cell>
+          <cell r="AM47">
+            <v>0</v>
+          </cell>
+          <cell r="AN47" t="str">
+            <v>160,600</v>
+          </cell>
+          <cell r="AO47">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>165</v>
+          </cell>
+          <cell r="B48">
+            <v>168</v>
+          </cell>
+          <cell r="C48">
+            <v>6</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>巨型黑熊</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>巨型黑熊</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>20</v>
+          </cell>
+          <cell r="H48">
+            <v>2250</v>
+          </cell>
+          <cell r="I48">
+            <v>400</v>
+          </cell>
+          <cell r="J48">
+            <v>400</v>
+          </cell>
+          <cell r="K48">
+            <v>0</v>
+          </cell>
+          <cell r="L48">
+            <v>0</v>
+          </cell>
+          <cell r="M48">
+            <v>90</v>
+          </cell>
+          <cell r="N48">
+            <v>0</v>
+          </cell>
+          <cell r="O48">
+            <v>-1</v>
+          </cell>
+          <cell r="P48">
+            <v>-1</v>
+          </cell>
+          <cell r="Q48">
+            <v>1</v>
+          </cell>
+          <cell r="R48">
+            <v>150</v>
+          </cell>
+          <cell r="S48">
+            <v>10</v>
+          </cell>
+          <cell r="T48">
+            <v>50</v>
+          </cell>
+          <cell r="U48">
+            <v>30</v>
+          </cell>
+          <cell r="V48">
+            <v>90</v>
+          </cell>
+          <cell r="W48">
+            <v>0</v>
+          </cell>
+          <cell r="X48">
+            <v>0</v>
+          </cell>
+          <cell r="Y48">
+            <v>0</v>
+          </cell>
+          <cell r="Z48">
+            <v>0</v>
+          </cell>
+          <cell r="AA48">
+            <v>10</v>
+          </cell>
+          <cell r="AB48">
+            <v>10</v>
+          </cell>
+          <cell r="AC48">
+            <v>10</v>
+          </cell>
+          <cell r="AD48">
+            <v>10</v>
+          </cell>
+          <cell r="AE48">
+            <v>10</v>
+          </cell>
+          <cell r="AF48">
+            <v>70</v>
+          </cell>
+          <cell r="AG48">
+            <v>50</v>
+          </cell>
+          <cell r="AH48">
+            <v>0</v>
+          </cell>
+          <cell r="AI48">
+            <v>0</v>
+          </cell>
+          <cell r="AJ48">
+            <v>0</v>
+          </cell>
+          <cell r="AK48">
+            <v>60</v>
+          </cell>
+          <cell r="AL48">
+            <v>-1</v>
+          </cell>
+          <cell r="AM48">
+            <v>0</v>
+          </cell>
+          <cell r="AN48" t="str">
+            <v>160,800</v>
+          </cell>
+          <cell r="AO48">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>180</v>
+          </cell>
+          <cell r="B49">
+            <v>181</v>
+          </cell>
+          <cell r="C49">
+            <v>6</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>10</v>
+          </cell>
+          <cell r="H49">
+            <v>2250</v>
+          </cell>
+          <cell r="I49">
+            <v>200</v>
+          </cell>
+          <cell r="J49">
+            <v>200</v>
+          </cell>
+          <cell r="K49">
+            <v>0</v>
+          </cell>
+          <cell r="L49">
+            <v>0</v>
+          </cell>
+          <cell r="M49">
+            <v>90</v>
+          </cell>
+          <cell r="N49">
+            <v>0</v>
+          </cell>
+          <cell r="O49">
+            <v>-1</v>
+          </cell>
+          <cell r="P49">
+            <v>-1</v>
+          </cell>
+          <cell r="Q49">
+            <v>0</v>
+          </cell>
+          <cell r="R49">
+            <v>150</v>
+          </cell>
+          <cell r="S49">
+            <v>10</v>
+          </cell>
+          <cell r="T49">
+            <v>80</v>
+          </cell>
+          <cell r="U49">
+            <v>30</v>
+          </cell>
+          <cell r="V49">
+            <v>30</v>
+          </cell>
+          <cell r="W49">
+            <v>0</v>
+          </cell>
+          <cell r="X49">
+            <v>0</v>
+          </cell>
+          <cell r="Y49">
+            <v>0</v>
+          </cell>
+          <cell r="Z49">
+            <v>0</v>
+          </cell>
+          <cell r="AA49">
+            <v>10</v>
+          </cell>
+          <cell r="AB49">
+            <v>10</v>
+          </cell>
+          <cell r="AC49">
+            <v>10</v>
+          </cell>
+          <cell r="AD49">
+            <v>10</v>
+          </cell>
+          <cell r="AE49">
+            <v>10</v>
+          </cell>
+          <cell r="AF49">
+            <v>30</v>
+          </cell>
+          <cell r="AG49">
+            <v>50</v>
+          </cell>
+          <cell r="AH49">
+            <v>80</v>
+          </cell>
+          <cell r="AI49">
+            <v>0</v>
+          </cell>
+          <cell r="AJ49">
+            <v>0</v>
+          </cell>
+          <cell r="AK49">
+            <v>60</v>
+          </cell>
+          <cell r="AL49">
+            <v>-1</v>
+          </cell>
+          <cell r="AM49">
+            <v>0</v>
+          </cell>
+          <cell r="AN49" t="str">
+            <v>180,600</v>
+          </cell>
+          <cell r="AO49">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>181</v>
+          </cell>
+          <cell r="B50">
+            <v>182</v>
+          </cell>
+          <cell r="C50">
+            <v>6</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50">
+            <v>10</v>
+          </cell>
+          <cell r="H50">
+            <v>2250</v>
+          </cell>
+          <cell r="I50">
+            <v>200</v>
+          </cell>
+          <cell r="J50">
+            <v>200</v>
+          </cell>
+          <cell r="K50">
+            <v>0</v>
+          </cell>
+          <cell r="L50">
+            <v>0</v>
+          </cell>
+          <cell r="M50">
+            <v>90</v>
+          </cell>
+          <cell r="N50">
+            <v>0</v>
+          </cell>
+          <cell r="O50">
+            <v>-1</v>
+          </cell>
+          <cell r="P50">
+            <v>-1</v>
+          </cell>
+          <cell r="Q50">
+            <v>0</v>
+          </cell>
+          <cell r="R50">
+            <v>150</v>
+          </cell>
+          <cell r="S50">
+            <v>10</v>
+          </cell>
+          <cell r="T50">
+            <v>80</v>
+          </cell>
+          <cell r="U50">
+            <v>30</v>
+          </cell>
+          <cell r="V50">
+            <v>30</v>
+          </cell>
+          <cell r="W50">
+            <v>0</v>
+          </cell>
+          <cell r="X50">
+            <v>0</v>
+          </cell>
+          <cell r="Y50">
+            <v>0</v>
+          </cell>
+          <cell r="Z50">
+            <v>0</v>
+          </cell>
+          <cell r="AA50">
+            <v>10</v>
+          </cell>
+          <cell r="AB50">
+            <v>10</v>
+          </cell>
+          <cell r="AC50">
+            <v>10</v>
+          </cell>
+          <cell r="AD50">
+            <v>10</v>
+          </cell>
+          <cell r="AE50">
+            <v>10</v>
+          </cell>
+          <cell r="AF50">
+            <v>30</v>
+          </cell>
+          <cell r="AG50">
+            <v>50</v>
+          </cell>
+          <cell r="AH50">
+            <v>80</v>
+          </cell>
+          <cell r="AI50">
+            <v>0</v>
+          </cell>
+          <cell r="AJ50">
+            <v>0</v>
+          </cell>
+          <cell r="AK50">
+            <v>60</v>
+          </cell>
+          <cell r="AL50">
+            <v>-1</v>
+          </cell>
+          <cell r="AM50">
+            <v>0</v>
+          </cell>
+          <cell r="AN50" t="str">
+            <v>180,600</v>
+          </cell>
+          <cell r="AO50">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>182</v>
+          </cell>
+          <cell r="B51">
+            <v>181</v>
+          </cell>
+          <cell r="C51">
+            <v>6</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51">
+            <v>10</v>
+          </cell>
+          <cell r="H51">
+            <v>2250</v>
+          </cell>
+          <cell r="I51">
+            <v>200</v>
+          </cell>
+          <cell r="J51">
+            <v>200</v>
+          </cell>
+          <cell r="K51">
+            <v>0</v>
+          </cell>
+          <cell r="L51">
+            <v>0</v>
+          </cell>
+          <cell r="M51">
+            <v>90</v>
+          </cell>
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+          <cell r="O51">
+            <v>-1</v>
+          </cell>
+          <cell r="P51">
+            <v>-1</v>
+          </cell>
+          <cell r="Q51">
+            <v>0</v>
+          </cell>
+          <cell r="R51">
+            <v>150</v>
+          </cell>
+          <cell r="S51">
+            <v>10</v>
+          </cell>
+          <cell r="T51">
+            <v>80</v>
+          </cell>
+          <cell r="U51">
+            <v>30</v>
+          </cell>
+          <cell r="V51">
+            <v>30</v>
+          </cell>
+          <cell r="W51">
+            <v>0</v>
+          </cell>
+          <cell r="X51">
+            <v>0</v>
+          </cell>
+          <cell r="Y51">
+            <v>0</v>
+          </cell>
+          <cell r="Z51">
+            <v>0</v>
+          </cell>
+          <cell r="AA51">
+            <v>10</v>
+          </cell>
+          <cell r="AB51">
+            <v>10</v>
+          </cell>
+          <cell r="AC51">
+            <v>10</v>
+          </cell>
+          <cell r="AD51">
+            <v>10</v>
+          </cell>
+          <cell r="AE51">
+            <v>10</v>
+          </cell>
+          <cell r="AF51">
+            <v>30</v>
+          </cell>
+          <cell r="AG51">
+            <v>50</v>
+          </cell>
+          <cell r="AH51">
+            <v>80</v>
+          </cell>
+          <cell r="AI51">
+            <v>0</v>
+          </cell>
+          <cell r="AJ51">
+            <v>0</v>
+          </cell>
+          <cell r="AK51">
+            <v>60</v>
+          </cell>
+          <cell r="AL51">
+            <v>-1</v>
+          </cell>
+          <cell r="AM51">
+            <v>0</v>
+          </cell>
+          <cell r="AN51" t="str">
+            <v>180,600</v>
+          </cell>
+          <cell r="AO51">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>183</v>
+          </cell>
+          <cell r="B52">
+            <v>181</v>
+          </cell>
+          <cell r="C52">
+            <v>6</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52">
+            <v>10</v>
+          </cell>
+          <cell r="H52">
+            <v>2250</v>
+          </cell>
+          <cell r="I52">
+            <v>200</v>
+          </cell>
+          <cell r="J52">
+            <v>200</v>
+          </cell>
+          <cell r="K52">
+            <v>0</v>
+          </cell>
+          <cell r="L52">
+            <v>0</v>
+          </cell>
+          <cell r="M52">
+            <v>90</v>
+          </cell>
+          <cell r="N52">
+            <v>0</v>
+          </cell>
+          <cell r="O52">
+            <v>-1</v>
+          </cell>
+          <cell r="P52">
+            <v>-1</v>
+          </cell>
+          <cell r="Q52">
+            <v>0</v>
+          </cell>
+          <cell r="R52">
+            <v>150</v>
+          </cell>
+          <cell r="S52">
+            <v>10</v>
+          </cell>
+          <cell r="T52">
+            <v>80</v>
+          </cell>
+          <cell r="U52">
+            <v>30</v>
+          </cell>
+          <cell r="V52">
+            <v>30</v>
+          </cell>
+          <cell r="W52">
+            <v>0</v>
+          </cell>
+          <cell r="X52">
+            <v>0</v>
+          </cell>
+          <cell r="Y52">
+            <v>0</v>
+          </cell>
+          <cell r="Z52">
+            <v>0</v>
+          </cell>
+          <cell r="AA52">
+            <v>10</v>
+          </cell>
+          <cell r="AB52">
+            <v>10</v>
+          </cell>
+          <cell r="AC52">
+            <v>10</v>
+          </cell>
+          <cell r="AD52">
+            <v>10</v>
+          </cell>
+          <cell r="AE52">
+            <v>10</v>
+          </cell>
+          <cell r="AF52">
+            <v>30</v>
+          </cell>
+          <cell r="AG52">
+            <v>50</v>
+          </cell>
+          <cell r="AH52">
+            <v>80</v>
+          </cell>
+          <cell r="AI52">
+            <v>0</v>
+          </cell>
+          <cell r="AJ52">
+            <v>0</v>
+          </cell>
+          <cell r="AK52">
+            <v>60</v>
+          </cell>
+          <cell r="AL52">
+            <v>-1</v>
+          </cell>
+          <cell r="AM52">
+            <v>0</v>
+          </cell>
+          <cell r="AN52" t="str">
+            <v>180,600</v>
+          </cell>
+          <cell r="AO52">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>184</v>
+          </cell>
+          <cell r="B53">
+            <v>182</v>
+          </cell>
+          <cell r="C53">
+            <v>6</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>毒蛇</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53">
+            <v>10</v>
+          </cell>
+          <cell r="H53">
+            <v>2250</v>
+          </cell>
+          <cell r="I53">
+            <v>200</v>
+          </cell>
+          <cell r="J53">
+            <v>200</v>
+          </cell>
+          <cell r="K53">
+            <v>0</v>
+          </cell>
+          <cell r="L53">
+            <v>0</v>
+          </cell>
+          <cell r="M53">
+            <v>90</v>
+          </cell>
+          <cell r="N53">
+            <v>0</v>
+          </cell>
+          <cell r="O53">
+            <v>-1</v>
+          </cell>
+          <cell r="P53">
+            <v>-1</v>
+          </cell>
+          <cell r="Q53">
+            <v>0</v>
+          </cell>
+          <cell r="R53">
+            <v>150</v>
+          </cell>
+          <cell r="S53">
+            <v>10</v>
+          </cell>
+          <cell r="T53">
+            <v>80</v>
+          </cell>
+          <cell r="U53">
+            <v>30</v>
+          </cell>
+          <cell r="V53">
+            <v>30</v>
+          </cell>
+          <cell r="W53">
+            <v>0</v>
+          </cell>
+          <cell r="X53">
+            <v>0</v>
+          </cell>
+          <cell r="Y53">
+            <v>0</v>
+          </cell>
+          <cell r="Z53">
+            <v>0</v>
+          </cell>
+          <cell r="AA53">
+            <v>10</v>
+          </cell>
+          <cell r="AB53">
+            <v>10</v>
+          </cell>
+          <cell r="AC53">
+            <v>10</v>
+          </cell>
+          <cell r="AD53">
+            <v>10</v>
+          </cell>
+          <cell r="AE53">
+            <v>10</v>
+          </cell>
+          <cell r="AF53">
+            <v>30</v>
+          </cell>
+          <cell r="AG53">
+            <v>50</v>
+          </cell>
+          <cell r="AH53">
+            <v>80</v>
+          </cell>
+          <cell r="AI53">
+            <v>0</v>
+          </cell>
+          <cell r="AJ53">
+            <v>0</v>
+          </cell>
+          <cell r="AK53">
+            <v>60</v>
+          </cell>
+          <cell r="AL53">
+            <v>-1</v>
+          </cell>
+          <cell r="AM53">
+            <v>0</v>
+          </cell>
+          <cell r="AN53" t="str">
+            <v>180,600</v>
+          </cell>
+          <cell r="AO53">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>190</v>
+          </cell>
+          <cell r="B54">
+            <v>190</v>
+          </cell>
+          <cell r="C54">
+            <v>4</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>路人乙</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>路人乙</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54">
+            <v>14</v>
+          </cell>
+          <cell r="H54">
+            <v>6350</v>
+          </cell>
+          <cell r="I54">
+            <v>230</v>
+          </cell>
+          <cell r="J54">
+            <v>230</v>
+          </cell>
+          <cell r="K54">
+            <v>0</v>
+          </cell>
+          <cell r="L54">
+            <v>0</v>
+          </cell>
+          <cell r="M54">
+            <v>90</v>
+          </cell>
+          <cell r="N54">
+            <v>0</v>
+          </cell>
+          <cell r="O54">
+            <v>-1</v>
+          </cell>
+          <cell r="P54">
+            <v>-1</v>
+          </cell>
+          <cell r="Q54">
+            <v>1</v>
+          </cell>
+          <cell r="R54">
+            <v>300</v>
+          </cell>
+          <cell r="S54">
+            <v>300</v>
+          </cell>
+          <cell r="T54">
+            <v>77</v>
+          </cell>
+          <cell r="U54">
+            <v>60</v>
+          </cell>
+          <cell r="V54">
+            <v>65</v>
+          </cell>
+          <cell r="W54">
+            <v>0</v>
+          </cell>
+          <cell r="X54">
+            <v>0</v>
+          </cell>
+          <cell r="Y54">
+            <v>0</v>
+          </cell>
+          <cell r="Z54">
+            <v>0</v>
+          </cell>
+          <cell r="AA54">
+            <v>10</v>
+          </cell>
+          <cell r="AB54">
+            <v>10</v>
+          </cell>
+          <cell r="AC54">
+            <v>10</v>
+          </cell>
+          <cell r="AD54">
+            <v>50</v>
+          </cell>
+          <cell r="AE54">
+            <v>50</v>
+          </cell>
+          <cell r="AF54">
+            <v>10</v>
+          </cell>
+          <cell r="AG54">
+            <v>50</v>
+          </cell>
+          <cell r="AH54">
+            <v>0</v>
+          </cell>
+          <cell r="AI54">
+            <v>0</v>
+          </cell>
+          <cell r="AJ54">
+            <v>0</v>
+          </cell>
+          <cell r="AK54">
+            <v>40</v>
+          </cell>
+          <cell r="AL54">
+            <v>-1</v>
+          </cell>
+          <cell r="AM54">
+            <v>0</v>
+          </cell>
+          <cell r="AN54" t="str">
+            <v>42,700</v>
+          </cell>
+          <cell r="AO54" t="str">
+            <v>-1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1293,8 +7761,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1303,7 +7771,7 @@
     <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="91" style="1" customWidth="1"/>
+    <col min="8" max="8" width="91" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1333,33 +7801,33 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1367,7 +7835,7 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -1385,7 +7853,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1393,7 +7861,7 @@
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -1411,7 +7879,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1419,7 +7887,7 @@
       <c r="A6">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
@@ -1437,7 +7905,7 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1445,10 +7913,10 @@
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7">
@@ -1463,7 +7931,7 @@
       <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1471,10 +7939,10 @@
       <c r="A8">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D8">
@@ -1489,7 +7957,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1497,10 +7965,10 @@
       <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9">
@@ -1515,7 +7983,7 @@
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1523,10 +7991,10 @@
       <c r="A10">
         <v>41</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10">
@@ -1541,7 +8009,7 @@
       <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1549,10 +8017,10 @@
       <c r="A11">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D11">
@@ -1567,7 +8035,7 @@
       <c r="G11">
         <v>-1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1575,10 +8043,10 @@
       <c r="A12">
         <v>61</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D12">
@@ -1593,7 +8061,7 @@
       <c r="G12">
         <v>-1</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1601,10 +8069,10 @@
       <c r="A13">
         <v>70</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D13">
@@ -1619,7 +8087,7 @@
       <c r="G13">
         <v>-1</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1627,10 +8095,10 @@
       <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D14">
@@ -1645,7 +8113,7 @@
       <c r="G14">
         <v>-1</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1653,7 +8121,7 @@
       <c r="A15">
         <v>140</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
@@ -1671,7 +8139,7 @@
       <c r="G15">
         <v>-1</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1679,7 +8147,7 @@
       <c r="A16">
         <v>141</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="s">
@@ -1697,7 +8165,7 @@
       <c r="G16">
         <v>-1</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1705,7 +8173,7 @@
       <c r="A17">
         <v>142</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
@@ -1723,7 +8191,7 @@
       <c r="G17">
         <v>-1</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1731,10 +8199,10 @@
       <c r="A18">
         <v>160</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D18">
@@ -1749,7 +8217,7 @@
       <c r="G18">
         <v>-1</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1757,10 +8225,10 @@
       <c r="A19">
         <v>161</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D19">
@@ -1775,7 +8243,7 @@
       <c r="G19">
         <v>-1</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1783,10 +8251,10 @@
       <c r="A20">
         <v>162</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D20">
@@ -1801,7 +8269,7 @@
       <c r="G20">
         <v>-1</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1809,10 +8277,10 @@
       <c r="A21">
         <v>163</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D21">
@@ -1827,7 +8295,7 @@
       <c r="G21">
         <v>-1</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1835,10 +8303,10 @@
       <c r="A22">
         <v>164</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D22">
@@ -1853,7 +8321,7 @@
       <c r="G22">
         <v>-1</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1861,10 +8329,10 @@
       <c r="A23">
         <v>165</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D23">
@@ -1879,7 +8347,7 @@
       <c r="G23">
         <v>-1</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1887,10 +8355,10 @@
       <c r="A24">
         <v>180</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D24">
@@ -1905,7 +8373,7 @@
       <c r="G24">
         <v>-1</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1913,10 +8381,10 @@
       <c r="A25">
         <v>181</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D25">
@@ -1931,7 +8399,7 @@
       <c r="G25">
         <v>-1</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1939,10 +8407,10 @@
       <c r="A26">
         <v>190</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D26">
@@ -1965,10 +8433,10 @@
       <c r="A27">
         <v>191</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D27">
@@ -1991,10 +8459,10 @@
       <c r="A28">
         <v>192</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D28">
@@ -2017,10 +8485,10 @@
       <c r="A29">
         <v>193</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D29">
@@ -2043,10 +8511,10 @@
       <c r="A30">
         <v>194</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D30">
@@ -2070,4 +8538,209 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP(K2,[1]Sheet1!$A$4:$AP$54,4)</f>
+        <v>野狼</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(K2,[1]Sheet1!$A$4:$AP$54,20)</f>
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(K2,[1]Sheet1!$A$4:$AP$54,27)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>MAX(0,C2*D2-E2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(M2,[1]Sheet1!$A$4:$AP$54,10)</f>
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>140</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(K3,[1]Sheet1!$A$4:$AP$54,4)</f>
+        <v>野狼</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(K3,[1]Sheet1!$A$4:$AP$54,20)</f>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(K3,[1]Sheet1!$A$4:$AP$54,27)</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>MAX(0,C3*D3-E3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>(G2-F2)</f>
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>140</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="14:18">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="14:18">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="14:18">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="14:18">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="14:18">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="14:18">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="14:18">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="14:18">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="14:18">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="14:18">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/jyx2/Assets/Mods/Hunter6SecMod/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/Hunter6SecMod/Configs/战斗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -335,6 +335,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前</t>
     </r>
     <r>
@@ -359,6 +366,12 @@
   </si>
   <si>
     <t>https://tyi45di4ct.jiandaoyun.com/f/612dec1be950b10008c1abbc</t>
+  </si>
+  <si>
+    <t>伤害的加法和乘法公式参考</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/75804609</t>
   </si>
 </sst>
 </file>
@@ -8546,7 +8559,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -8663,14 +8676,18 @@
       <c r="K3">
         <v>140</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="14:18">
-      <c r="N4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
